--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ny123_ic_ac_uk/Documents/PhD_Work/Beam_excavation_example/Beam_surrogate/PCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ny123_ic_ac_uk/Documents/PhD_Work/Beam_excavation_example/Beam_surrogate/PCE_VS_RSM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="11_F25DC773A252ABDACC1048C5F11973C85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731C4E59-338C-4192-862B-C4387DA29358}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC1048C5F11973C85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39E8E0F5-011A-4695-9699-727DFA5E5640}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement_for_surrogate" sheetId="1" r:id="rId1"/>
     <sheet name="FE_models" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>E</t>
   </si>
@@ -3498,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4494,7 +4493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FBA2A8-3238-40A1-8EA5-9D77B8B3F3DD}">
   <dimension ref="A1:AE291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4600,10 +4599,10 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2">
-        <v>1.1717091985529899</v>
+        <v>11717091985.5299</v>
       </c>
       <c r="B2" s="2">
-        <v>0.35042328670235201</v>
+        <v>1.7521164335117601</v>
       </c>
       <c r="C2" s="2">
         <v>0.62577475253546999</v>
@@ -4695,10 +4694,10 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2">
-        <v>1.2335335987564502</v>
+        <v>12335335987.564501</v>
       </c>
       <c r="B3" s="2">
-        <v>1.700478240035912</v>
+        <v>8.5023912001795594</v>
       </c>
       <c r="C3" s="2">
         <v>0.467475570147317</v>
@@ -4790,10 +4789,10 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2">
-        <v>1.3189394610587699</v>
+        <v>13189394610.5877</v>
       </c>
       <c r="B4" s="2">
-        <v>0.40394249103240798</v>
+        <v>2.0197124551620398</v>
       </c>
       <c r="C4" s="2">
         <v>0.55654675439671097</v>
@@ -4885,10 +4884,10 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2">
-        <v>1.3988368740957702</v>
+        <v>13988368740.957701</v>
       </c>
       <c r="B5" s="2">
-        <v>0.79543992956085607</v>
+        <v>3.9771996478042801</v>
       </c>
       <c r="C5" s="2">
         <v>0.51744944383514202</v>
@@ -4980,10 +4979,10 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2">
-        <v>1.4481390344821601</v>
+        <v>14481390344.8216</v>
       </c>
       <c r="B6" s="2">
-        <v>0.13089885760808301</v>
+        <v>0.65449428804041498</v>
       </c>
       <c r="C6" s="2">
         <v>0.50036478748475899</v>
@@ -5075,10 +5074,10 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2">
-        <v>1.4935522681634599</v>
+        <v>14935522681.6346</v>
       </c>
       <c r="B7" s="2">
-        <v>1.898812351510702</v>
+        <v>9.49406175755351</v>
       </c>
       <c r="C7" s="2">
         <v>0.34713084323691701</v>
@@ -5170,10 +5169,10 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2">
-        <v>1.5218876738934499</v>
+        <v>15218876738.9345</v>
       </c>
       <c r="B8" s="2">
-        <v>0.46521376998658798</v>
+        <v>2.3260688499329398</v>
       </c>
       <c r="C8" s="2">
         <v>0.48253267079948398</v>
@@ -5265,10 +5264,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2">
-        <v>1.55587472223053</v>
+        <v>15558747222.3053</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.52698144611357201</v>
+        <v>-2.63490723056786</v>
       </c>
       <c r="C9" s="2">
         <v>0.41970541792154797</v>
@@ -5360,10 +5359,10 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2">
-        <v>1.57900571671916</v>
+        <v>15790057167.191601</v>
       </c>
       <c r="B10" s="2">
-        <v>0.93198467600686197</v>
+        <v>4.6599233800343098</v>
       </c>
       <c r="C10" s="2">
         <v>0.451651539549285</v>
@@ -5455,10 +5454,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2">
-        <v>1.60072125555203</v>
+        <v>16007212555.5203</v>
       </c>
       <c r="B11" s="2">
-        <v>0.63614335329764393</v>
+        <v>3.1807167664882199</v>
       </c>
       <c r="C11" s="2">
         <v>0.457002470859528</v>
@@ -5550,10 +5549,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2">
-        <v>1.64381330777487</v>
+        <v>16438133077.748699</v>
       </c>
       <c r="B12" s="2">
-        <v>2.9142913091044397E-2</v>
+        <v>0.14571456545522199</v>
       </c>
       <c r="C12" s="2">
         <v>0.436696436945892</v>
@@ -5645,10 +5644,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2">
-        <v>1.6587212411560301</v>
+        <v>16587212411.560301</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.89355571997718997</v>
+        <v>-4.4677785998859498</v>
       </c>
       <c r="C13" s="2">
         <v>0.35418879398867698</v>
@@ -5740,10 +5739,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2">
-        <v>1.67655746023908</v>
+        <v>16765574602.3908</v>
       </c>
       <c r="B14" s="2">
-        <v>0.20325307984372798</v>
+        <v>1.0162653992186399</v>
       </c>
       <c r="C14" s="2">
         <v>0.43443428160170799</v>
@@ -5835,10 +5834,10 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2">
-        <v>1.6994240002235099</v>
+        <v>16994240002.2351</v>
       </c>
       <c r="B15" s="2">
-        <v>-2.1597404669349399E-2</v>
+        <v>-0.10798702334674699</v>
       </c>
       <c r="C15" s="2">
         <v>0.42005746325162802</v>
@@ -5930,10 +5929,10 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2">
-        <v>1.70984443320978</v>
+        <v>17098444332.097799</v>
       </c>
       <c r="B16" s="2">
-        <v>1.218093818657894</v>
+        <v>6.0904690932894701</v>
       </c>
       <c r="C16" s="2">
         <v>0.39654401803209599</v>
@@ -6025,10 +6024,10 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2">
-        <v>1.73190306730466</v>
+        <v>17319030673.0466</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.65404808412545601</v>
+        <v>-3.2702404206272799</v>
       </c>
       <c r="C17" s="2">
         <v>0.36501258787694102</v>
@@ -6120,10 +6119,10 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2">
-        <v>1.7431407814791302</v>
+        <v>17431407814.791302</v>
       </c>
       <c r="B18" s="2">
-        <v>0.60877458734379797</v>
+        <v>3.0438729367189898</v>
       </c>
       <c r="C18" s="2">
         <v>0.42013734194999502</v>
@@ -6215,10 +6214,10 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2">
-        <v>1.7665460247065201</v>
+        <v>17665460247.065201</v>
       </c>
       <c r="B19" s="2">
-        <v>-0.33527330429459401</v>
+        <v>-1.6763665214729699</v>
       </c>
       <c r="C19" s="2">
         <v>0.38516309365564899</v>
@@ -6310,10 +6309,10 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2">
-        <v>1.7815773953490199</v>
+        <v>17815773953.4902</v>
       </c>
       <c r="B20" s="2">
-        <v>1.011365086583</v>
+        <v>5.0568254329149998</v>
       </c>
       <c r="C20" s="2">
         <v>0.39581714579057298</v>
@@ -6405,10 +6404,10 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2">
-        <v>1.7950668756522201</v>
+        <v>17950668756.522202</v>
       </c>
       <c r="B21" s="2">
-        <v>1.168163685577432</v>
+        <v>5.84081842788716</v>
       </c>
       <c r="C21" s="2">
         <v>0.38184918395173101</v>
@@ -6500,10 +6499,10 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2">
-        <v>1.8092453499296199</v>
+        <v>18092453499.2962</v>
       </c>
       <c r="B22" s="2">
-        <v>1.8088908504015158</v>
+        <v>9.0444542520075792</v>
       </c>
       <c r="C22" s="2">
         <v>0.30182897093254801</v>
@@ -6595,10 +6594,10 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2">
-        <v>1.8188460068574199</v>
+        <v>18188460068.5742</v>
       </c>
       <c r="B23" s="2">
-        <v>1.7186009844957422</v>
+        <v>8.5930049224787108</v>
       </c>
       <c r="C23" s="2">
         <v>0.31434412948203999</v>
@@ -6690,10 +6689,10 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2">
-        <v>1.8242735359515401</v>
+        <v>18242735359.5154</v>
       </c>
       <c r="B24" s="2">
-        <v>9.3641955042614203E-2</v>
+        <v>0.468209775213071</v>
       </c>
       <c r="C24" s="2">
         <v>0.39595100996457699</v>
@@ -6785,10 +6784,10 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2">
-        <v>1.8390952994405998</v>
+        <v>18390952994.405998</v>
       </c>
       <c r="B25" s="2">
-        <v>0.35929282254455003</v>
+        <v>1.7964641127227501</v>
       </c>
       <c r="C25" s="2">
         <v>0.39878209067508702</v>
@@ -6880,10 +6879,10 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2">
-        <v>1.85732258270411</v>
+        <v>18573225827.0411</v>
       </c>
       <c r="B26" s="2">
-        <v>0.24770739673062797</v>
+        <v>1.2385369836531399</v>
       </c>
       <c r="C26" s="2">
         <v>0.393158226354476</v>
@@ -6975,10 +6974,10 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2">
-        <v>1.86809633236749</v>
+        <v>18680963323.6749</v>
       </c>
       <c r="B27" s="2">
-        <v>0.23280139415946599</v>
+        <v>1.16400697079733</v>
       </c>
       <c r="C27" s="2">
         <v>0.39057576710399899</v>
@@ -7070,10 +7069,10 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2">
-        <v>1.8724276423370301</v>
+        <v>18724276423.3703</v>
       </c>
       <c r="B28" s="2">
-        <v>1.0372635056731421</v>
+        <v>5.1863175283657101</v>
       </c>
       <c r="C28" s="2">
         <v>0.37506701465044201</v>
@@ -7165,10 +7164,10 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2">
-        <v>1.8842848699296397</v>
+        <v>18842848699.296398</v>
       </c>
       <c r="B29" s="2">
-        <v>0.48310829180813997</v>
+        <v>2.4155414590406998</v>
       </c>
       <c r="C29" s="2">
         <v>0.38970807382345202</v>
@@ -7260,10 +7259,10 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2">
-        <v>1.9009640232638501</v>
+        <v>19009640232.6385</v>
       </c>
       <c r="B30" s="2">
-        <v>1.9459959714244501</v>
+        <v>9.7299798571222507</v>
       </c>
       <c r="C30" s="2">
         <v>0.26466789095700799</v>
@@ -7355,10 +7354,10 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2">
-        <v>1.9072564531768901</v>
+        <v>19072564531.768902</v>
       </c>
       <c r="B31" s="2">
-        <v>-0.18485414252497939</v>
+        <v>-0.92427071262489702</v>
       </c>
       <c r="C31" s="2">
         <v>0.36612032514637799</v>
@@ -7450,10 +7449,10 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2">
-        <v>1.9175258903204699</v>
+        <v>19175258903.2047</v>
       </c>
       <c r="B32" s="2">
-        <v>1.104279765984804</v>
+        <v>5.5213988299240198</v>
       </c>
       <c r="C32" s="2">
         <v>0.36199256871354601</v>
@@ -7545,10 +7544,10 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2">
-        <v>1.9293499555304501</v>
+        <v>19293499555.304501</v>
       </c>
       <c r="B33" s="2">
-        <v>-0.99189614525355996</v>
+        <v>-4.9594807262677998</v>
       </c>
       <c r="C33" s="2">
         <v>0.29401705116277499</v>
@@ -7640,10 +7639,10 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2">
-        <v>1.9401236189670701</v>
+        <v>19401236189.6707</v>
       </c>
       <c r="B34" s="2">
-        <v>-0.71491383834071198</v>
+        <v>-3.57456919170356</v>
       </c>
       <c r="C34" s="2">
         <v>0.32032169687795498</v>
@@ -7735,10 +7734,10 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2">
-        <v>1.9459742560139999</v>
+        <v>19459742560.139999</v>
       </c>
       <c r="B35" s="2">
-        <v>1.2666071402505481</v>
+        <v>6.3330357012527401</v>
       </c>
       <c r="C35" s="2">
         <v>0.34444861384311298</v>
@@ -7830,10 +7829,10 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2">
-        <v>1.95124273777933</v>
+        <v>19512427377.793301</v>
       </c>
       <c r="B36" s="2">
-        <v>-0.1140114836881356</v>
+        <v>-0.57005741844067803</v>
       </c>
       <c r="C36" s="2">
         <v>0.36158732034596802</v>
@@ -7925,10 +7924,10 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2">
-        <v>1.9661276946278901</v>
+        <v>19661276946.2789</v>
       </c>
       <c r="B37" s="2">
-        <v>-0.77044665560858394</v>
+        <v>-3.8522332780429198</v>
       </c>
       <c r="C37" s="2">
         <v>0.31091894337107401</v>
@@ -8020,10 +8019,10 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2">
-        <v>1.97373955212258</v>
+        <v>19737395521.2258</v>
       </c>
       <c r="B38" s="2">
-        <v>1.3962639828789261</v>
+        <v>6.9813199143946303</v>
       </c>
       <c r="C38" s="2">
         <v>0.327788048779801</v>
@@ -8115,10 +8114,10 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2">
-        <v>1.9828338434567798</v>
+        <v>19828338434.567799</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6332643030050018</v>
+        <v>8.1663215150250092</v>
       </c>
       <c r="C39" s="2">
         <v>0.29963124052544798</v>
@@ -8210,10 +8209,10 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2">
-        <v>1.9895608525033099</v>
+        <v>19895608525.0331</v>
       </c>
       <c r="B40" s="2">
-        <v>-0.25610909630357004</v>
+        <v>-1.2805454815178501</v>
       </c>
       <c r="C40" s="2">
         <v>0.34692443729348699</v>
@@ -8305,10 +8304,10 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2">
-        <v>1.99990472192486</v>
+        <v>19999047219.2486</v>
       </c>
       <c r="B41" s="2">
-        <v>0.98478552972241995</v>
+        <v>4.9239276486121</v>
       </c>
       <c r="C41" s="2">
         <v>0.354016612259347</v>
@@ -8400,10 +8399,10 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2">
-        <v>2.0101690469462801</v>
+        <v>20101690469.462799</v>
       </c>
       <c r="B42" s="2">
-        <v>-3.1796517648276804E-2</v>
+        <v>-0.158982588241384</v>
       </c>
       <c r="C42" s="2">
         <v>0.35469853886917302</v>
@@ -8495,10 +8494,10 @@
     </row>
     <row r="43" spans="1:31">
       <c r="A43" s="2">
-        <v>2.0135438291902101</v>
+        <v>20135438291.9021</v>
       </c>
       <c r="B43" s="2">
-        <v>0.17176455818190942</v>
+        <v>0.85882279090954705</v>
       </c>
       <c r="C43" s="2">
         <v>0.36096931795037801</v>
@@ -8590,10 +8589,10 @@
     </row>
     <row r="44" spans="1:31">
       <c r="A44" s="2">
-        <v>2.0207881667321099</v>
+        <v>20207881667.321098</v>
       </c>
       <c r="B44" s="2">
-        <v>1.353572149144362</v>
+        <v>6.7678607457218103</v>
       </c>
       <c r="C44" s="2">
         <v>0.32416772695612101</v>
@@ -8685,10 +8684,10 @@
     </row>
     <row r="45" spans="1:31">
       <c r="A45" s="2">
-        <v>2.0301275500748202</v>
+        <v>20301275500.748199</v>
       </c>
       <c r="B45" s="2">
-        <v>0.47795550789808205</v>
+        <v>2.3897775394904102</v>
       </c>
       <c r="C45" s="2">
         <v>0.36172035447942802</v>
@@ -8780,10 +8779,10 @@
     </row>
     <row r="46" spans="1:31">
       <c r="A46" s="2">
-        <v>2.0414161392841299</v>
+        <v>20414161392.841301</v>
       </c>
       <c r="B46" s="2">
-        <v>-1.200970715122138</v>
+        <v>-6.0048535756106904</v>
       </c>
       <c r="C46" s="2">
         <v>0.25515174273570301</v>
@@ -8875,10 +8874,10 @@
     </row>
     <row r="47" spans="1:31">
       <c r="A47" s="2">
-        <v>2.0450909208343</v>
+        <v>20450909208.342999</v>
       </c>
       <c r="B47" s="2">
-        <v>0.38379198399522002</v>
+        <v>1.9189599199761</v>
       </c>
       <c r="C47" s="2">
         <v>0.35881094349206</v>
@@ -8970,10 +8969,10 @@
     </row>
     <row r="48" spans="1:31">
       <c r="A48" s="2">
-        <v>2.05067626621521</v>
+        <v>20506762662.1521</v>
       </c>
       <c r="B48" s="2">
-        <v>0.44581082483478002</v>
+        <v>2.2290541241739001</v>
       </c>
       <c r="C48" s="2">
         <v>0.35809494126507002</v>
@@ -9065,10 +9064,10 @@
     </row>
     <row r="49" spans="1:31">
       <c r="A49" s="2">
-        <v>2.0616814853143</v>
+        <v>20616814853.143002</v>
       </c>
       <c r="B49" s="2">
-        <v>0.81679052603649205</v>
+        <v>4.08395263018246</v>
       </c>
       <c r="C49" s="2">
         <v>0.35039876418330601</v>
@@ -9160,10 +9159,10 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50" s="2">
-        <v>2.0657096286307302</v>
+        <v>20657096286.307301</v>
       </c>
       <c r="B50" s="2">
-        <v>0.91561088181587791</v>
+        <v>4.5780544090793898</v>
       </c>
       <c r="C50" s="2">
         <v>0.345954816515539</v>
@@ -9255,10 +9254,10 @@
     </row>
     <row r="51" spans="1:31">
       <c r="A51" s="2">
-        <v>2.0779155802146301</v>
+        <v>20779155802.146301</v>
       </c>
       <c r="B51" s="2">
-        <v>-0.53628880671252799</v>
+        <v>-2.6814440335626402</v>
       </c>
       <c r="C51" s="2">
         <v>0.313560859410561</v>
@@ -9350,10 +9349,10 @@
     </row>
     <row r="52" spans="1:31">
       <c r="A52" s="2">
-        <v>2.0818910505986001</v>
+        <v>20818910505.986</v>
       </c>
       <c r="B52" s="2">
-        <v>7.1457921129241E-2</v>
+        <v>0.35728960564620499</v>
       </c>
       <c r="C52" s="2">
         <v>0.34625249976063699</v>
@@ -9445,10 +9444,10 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="2">
-        <v>2.0885216990691999</v>
+        <v>20885216990.692001</v>
       </c>
       <c r="B53" s="2">
-        <v>0.59275352951670002</v>
+        <v>2.9637676475835</v>
       </c>
       <c r="C53" s="2">
         <v>0.35085811841653702</v>
@@ -9540,10 +9539,10 @@
     </row>
     <row r="54" spans="1:31">
       <c r="A54" s="2">
-        <v>2.0983815631916598</v>
+        <v>20983815631.916599</v>
       </c>
       <c r="B54" s="2">
-        <v>0.62257027900432604</v>
+        <v>3.1128513950216301</v>
       </c>
       <c r="C54" s="2">
         <v>0.34882154611440902</v>
@@ -9635,10 +9634,10 @@
     </row>
     <row r="55" spans="1:31">
       <c r="A55" s="2">
-        <v>2.1061981501844</v>
+        <v>21061981501.844002</v>
       </c>
       <c r="B55" s="2">
-        <v>1.2838425113526259</v>
+        <v>6.4192125567631297</v>
       </c>
       <c r="C55" s="2">
         <v>0.31687909257741298</v>
@@ -9730,10 +9729,10 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56" s="2">
-        <v>2.1125106076560396</v>
+        <v>21125106076.560398</v>
       </c>
       <c r="B56" s="2">
-        <v>0.71220686370627606</v>
+        <v>3.5610343185313802</v>
       </c>
       <c r="C56" s="2">
         <v>0.344839974551577</v>
@@ -9825,10 +9824,10 @@
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="2">
-        <v>2.1149483128028597</v>
+        <v>21149483128.028599</v>
       </c>
       <c r="B57" s="2">
-        <v>0.45784653554618604</v>
+        <v>2.2892326777309302</v>
       </c>
       <c r="C57" s="2">
         <v>0.34722344993610899</v>
@@ -9920,10 +9919,10 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58" s="2">
-        <v>2.1269928532832698</v>
+        <v>21269928532.832699</v>
       </c>
       <c r="B58" s="2">
-        <v>-0.31930194266881801</v>
+        <v>-1.59650971334409</v>
       </c>
       <c r="C58" s="2">
         <v>0.320857466629136</v>
@@ -10015,10 +10014,10 @@
     </row>
     <row r="59" spans="1:31">
       <c r="A59" s="2">
-        <v>2.1324879027619597</v>
+        <v>21324879027.619598</v>
       </c>
       <c r="B59" s="2">
-        <v>1.7610396242589459</v>
+        <v>8.8051981212947297</v>
       </c>
       <c r="C59" s="2">
         <v>0.262575457290327</v>
@@ -10110,10 +10109,10 @@
     </row>
     <row r="60" spans="1:31">
       <c r="A60" s="2">
-        <v>2.1394110132608501</v>
+        <v>21394110132.608501</v>
       </c>
       <c r="B60" s="2">
-        <v>2.1067223694216</v>
+        <v>10.533611847108</v>
       </c>
       <c r="C60" s="2">
         <v>0.20868829928836599</v>
@@ -10205,10 +10204,10 @@
     </row>
     <row r="61" spans="1:31">
       <c r="A61" s="2">
-        <v>2.1461296953626001</v>
+        <v>21461296953.625999</v>
       </c>
       <c r="B61" s="2">
-        <v>0.57702151820437408</v>
+        <v>2.8851075910218702</v>
       </c>
       <c r="C61" s="2">
         <v>0.34160838705936097</v>
@@ -10300,10 +10299,10 @@
     </row>
     <row r="62" spans="1:31">
       <c r="A62" s="2">
-        <v>2.1501199541545897</v>
+        <v>21501199541.545898</v>
       </c>
       <c r="B62" s="2">
-        <v>-0.45167379376261402</v>
+        <v>-2.2583689688130701</v>
       </c>
       <c r="C62" s="2">
         <v>0.30899126048541198</v>
@@ -10395,10 +10394,10 @@
     </row>
     <row r="63" spans="1:31">
       <c r="A63" s="2">
-        <v>2.1553452738335199</v>
+        <v>21553452738.335201</v>
       </c>
       <c r="B63" s="2">
-        <v>0.52230411512194397</v>
+        <v>2.61152057560972</v>
       </c>
       <c r="C63" s="2">
         <v>0.34056131022763297</v>
@@ -10490,10 +10489,10 @@
     </row>
     <row r="64" spans="1:31">
       <c r="A64" s="2">
-        <v>2.1610594504299101</v>
+        <v>21610594504.299099</v>
       </c>
       <c r="B64" s="2">
-        <v>1.1144528141144581</v>
+        <v>5.5722640705722899</v>
       </c>
       <c r="C64" s="2">
         <v>0.32058670818343299</v>
@@ -10585,10 +10584,10 @@
     </row>
     <row r="65" spans="1:31">
       <c r="A65" s="2">
-        <v>2.1684728606025598</v>
+        <v>21684728606.0256</v>
       </c>
       <c r="B65" s="2">
-        <v>0.86597890455841797</v>
+        <v>4.32989452279209</v>
       </c>
       <c r="C65" s="2">
         <v>0.33147492673381301</v>
@@ -10680,10 +10679,10 @@
     </row>
     <row r="66" spans="1:31">
       <c r="A66" s="2">
-        <v>2.1736583988399101</v>
+        <v>21736583988.399101</v>
       </c>
       <c r="B66" s="2">
-        <v>-9.4148086549976792E-2</v>
+        <v>-0.47074043274988397</v>
       </c>
       <c r="C66" s="2">
         <v>0.32546182914319299</v>
@@ -10775,10 +10774,10 @@
     </row>
     <row r="67" spans="1:31">
       <c r="A67" s="2">
-        <v>2.1793532374598299</v>
+        <v>21793532374.598301</v>
       </c>
       <c r="B67" s="2">
-        <v>0.163335397403716</v>
+        <v>0.81667698701858005</v>
       </c>
       <c r="C67" s="2">
         <v>0.333305545636714</v>
@@ -10870,10 +10869,10 @@
     </row>
     <row r="68" spans="1:31">
       <c r="A68" s="2">
-        <v>2.19012954523977</v>
+        <v>21901295452.397701</v>
       </c>
       <c r="B68" s="2">
-        <v>1.2705357601507141</v>
+        <v>6.3526788007535702</v>
       </c>
       <c r="C68" s="2">
         <v>0.305752717907397</v>
@@ -10965,10 +10964,10 @@
     </row>
     <row r="69" spans="1:31">
       <c r="A69" s="2">
-        <v>2.19498176221148</v>
+        <v>21949817622.114799</v>
       </c>
       <c r="B69" s="2">
-        <v>1.9564095733239342</v>
+        <v>9.7820478666196706</v>
       </c>
       <c r="C69" s="2">
         <v>0.22763803619065801</v>
@@ -11060,10 +11059,10 @@
     </row>
     <row r="70" spans="1:31">
       <c r="A70" s="2">
-        <v>2.20227773145024</v>
+        <v>22022777314.502399</v>
       </c>
       <c r="B70" s="2">
-        <v>-0.88038548689454199</v>
+        <v>-4.40192743447271</v>
       </c>
       <c r="C70" s="2">
         <v>0.267963448028184</v>
@@ -11155,10 +11154,10 @@
     </row>
     <row r="71" spans="1:31">
       <c r="A71" s="2">
-        <v>2.2030381368354499</v>
+        <v>22030381368.3545</v>
       </c>
       <c r="B71" s="2">
-        <v>0.31350668590474401</v>
+        <v>1.56753342952372</v>
       </c>
       <c r="C71" s="2">
         <v>0.33243149630301899</v>
@@ -11250,10 +11249,10 @@
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="2">
-        <v>2.2093988785235297</v>
+        <v>22093988785.235298</v>
       </c>
       <c r="B72" s="2">
-        <v>-0.43179454774979797</v>
+        <v>-2.1589727387489899</v>
       </c>
       <c r="C72" s="2">
         <v>0.302000582117953</v>
@@ -11345,10 +11344,10 @@
     </row>
     <row r="73" spans="1:31">
       <c r="A73" s="2">
-        <v>2.2175661927100601</v>
+        <v>22175661927.100601</v>
       </c>
       <c r="B73" s="2">
-        <v>-1.4142535254574101E-2</v>
+        <v>-7.0712676272870506E-2</v>
       </c>
       <c r="C73" s="2">
         <v>0.32218559209386599</v>
@@ -11440,10 +11439,10 @@
     </row>
     <row r="74" spans="1:31">
       <c r="A74" s="2">
-        <v>2.22248745959295</v>
+        <v>22224874595.929501</v>
       </c>
       <c r="B74" s="2">
-        <v>1.144128297350862</v>
+        <v>5.7206414867543103</v>
       </c>
       <c r="C74" s="2">
         <v>0.309930998972827</v>
@@ -11535,10 +11534,10 @@
     </row>
     <row r="75" spans="1:31">
       <c r="A75" s="2">
-        <v>2.2262828517350499</v>
+        <v>22262828517.350498</v>
       </c>
       <c r="B75" s="2">
-        <v>-1.0820276193638361</v>
+        <v>-5.4101380968191801</v>
       </c>
       <c r="C75" s="2">
         <v>0.24606299877812099</v>
@@ -11630,10 +11629,10 @@
     </row>
     <row r="76" spans="1:31">
       <c r="A76" s="2">
-        <v>2.2346965596472099</v>
+        <v>22346965596.472099</v>
       </c>
       <c r="B76" s="2">
-        <v>1.3103731504988341</v>
+        <v>6.5518657524941704</v>
       </c>
       <c r="C76" s="2">
         <v>0.296616523898863</v>
@@ -11725,10 +11724,10 @@
     </row>
     <row r="77" spans="1:31">
       <c r="A77" s="2">
-        <v>2.2388448994270198</v>
+        <v>22388448994.270199</v>
       </c>
       <c r="B77" s="2">
-        <v>-7.0476475322754001E-2</v>
+        <v>-0.35238237661376998</v>
       </c>
       <c r="C77" s="2">
         <v>0.31696052156364501</v>
@@ -11820,10 +11819,10 @@
     </row>
     <row r="78" spans="1:31">
       <c r="A78" s="2">
-        <v>2.2478567818563899</v>
+        <v>22478567818.5639</v>
       </c>
       <c r="B78" s="2">
-        <v>1.9096549560092122</v>
+        <v>9.5482747800460608</v>
       </c>
       <c r="C78" s="2">
         <v>0.22910081646820099</v>
@@ -11915,10 +11914,10 @@
     </row>
     <row r="79" spans="1:31">
       <c r="A79" s="2">
-        <v>2.2528702479133202</v>
+        <v>22528702479.133202</v>
       </c>
       <c r="B79" s="2">
-        <v>0.772061213738792</v>
+        <v>3.8603060686939599</v>
       </c>
       <c r="C79" s="2">
         <v>0.321933021722076</v>
@@ -12010,10 +12009,10 @@
     </row>
     <row r="80" spans="1:31">
       <c r="A80" s="2">
-        <v>2.2561169515401098</v>
+        <v>22561169515.4011</v>
       </c>
       <c r="B80" s="2">
-        <v>2.4023786812848802</v>
+        <v>12.011893406424401</v>
       </c>
       <c r="C80" s="2">
         <v>0.14352260880690099</v>
@@ -12105,10 +12104,10 @@
     </row>
     <row r="81" spans="1:31">
       <c r="A81" s="2">
-        <v>2.2609461103747801</v>
+        <v>22609461103.747799</v>
       </c>
       <c r="B81" s="2">
-        <v>0.956660458925084</v>
+        <v>4.78330229462542</v>
       </c>
       <c r="C81" s="2">
         <v>0.314391131863269</v>
@@ -12200,10 +12199,10 @@
     </row>
     <row r="82" spans="1:31">
       <c r="A82" s="2">
-        <v>2.2667254208441001</v>
+        <v>22667254208.441002</v>
       </c>
       <c r="B82" s="2">
-        <v>0.7819688710346</v>
+        <v>3.909844355173</v>
       </c>
       <c r="C82" s="2">
         <v>0.31970080610901103</v>
@@ -12295,10 +12294,10 @@
     </row>
     <row r="83" spans="1:31">
       <c r="A83" s="2">
-        <v>2.2731952122963799</v>
+        <v>22731952122.963799</v>
       </c>
       <c r="B83" s="2">
-        <v>1.04802017535228</v>
+        <v>5.2401008767614004</v>
       </c>
       <c r="C83" s="2">
         <v>0.30839500611113202</v>
@@ -12390,10 +12389,10 @@
     </row>
     <row r="84" spans="1:31">
       <c r="A84" s="2">
-        <v>2.2779483417323001</v>
+        <v>22779483417.323002</v>
       </c>
       <c r="B84" s="2">
-        <v>1.3753181854582481</v>
+        <v>6.8765909272912404</v>
       </c>
       <c r="C84" s="2">
         <v>0.28578268536323898</v>
@@ -12485,10 +12484,10 @@
     </row>
     <row r="85" spans="1:31">
       <c r="A85" s="2">
-        <v>2.28542910220852</v>
+        <v>22854291022.085201</v>
       </c>
       <c r="B85" s="2">
-        <v>2.75398844681584</v>
+        <v>13.769942234079201</v>
       </c>
       <c r="C85" s="2">
         <v>6.3522064823991198E-2</v>
@@ -12580,10 +12579,10 @@
     </row>
     <row r="86" spans="1:31">
       <c r="A86" s="2">
-        <v>2.2990467803913899</v>
+        <v>22990467803.913898</v>
       </c>
       <c r="B86" s="2">
-        <v>1.2465469763747461</v>
+        <v>6.2327348818737303</v>
       </c>
       <c r="C86" s="2">
         <v>0.29297058853788699</v>
@@ -12675,10 +12674,10 @@
     </row>
     <row r="87" spans="1:31">
       <c r="A87" s="2">
-        <v>2.3043462561477699</v>
+        <v>23043462561.477699</v>
       </c>
       <c r="B87" s="2">
-        <v>0.38937754509751799</v>
+        <v>1.94688772548759</v>
       </c>
       <c r="C87" s="2">
         <v>0.31847547023579598</v>
@@ -12770,10 +12769,10 @@
     </row>
     <row r="88" spans="1:31">
       <c r="A88" s="2">
-        <v>2.30742154989513</v>
+        <v>23074215498.951302</v>
       </c>
       <c r="B88" s="2">
-        <v>1.692301341483202</v>
+        <v>8.4615067074160102</v>
       </c>
       <c r="C88" s="2">
         <v>0.25085676254794997</v>
@@ -12865,10 +12864,10 @@
     </row>
     <row r="89" spans="1:31">
       <c r="A89" s="2">
-        <v>2.3124107639918599</v>
+        <v>23124107639.918598</v>
       </c>
       <c r="B89" s="2">
-        <v>-0.50147164035674796</v>
+        <v>-2.5073582017837399</v>
       </c>
       <c r="C89" s="2">
         <v>0.28409373386154602</v>
@@ -12960,10 +12959,10 @@
     </row>
     <row r="90" spans="1:31">
       <c r="A90" s="2">
-        <v>2.3197410792590403</v>
+        <v>23197410792.590401</v>
       </c>
       <c r="B90" s="2">
-        <v>0.90218973111674994</v>
+        <v>4.5109486555837499</v>
       </c>
       <c r="C90" s="2">
         <v>0.30857549068554102</v>
@@ -13055,10 +13054,10 @@
     </row>
     <row r="91" spans="1:31">
       <c r="A91" s="2">
-        <v>2.3238836587135601</v>
+        <v>23238836587.135601</v>
       </c>
       <c r="B91" s="2">
-        <v>2.0457581983731998</v>
+        <v>10.228790991865999</v>
       </c>
       <c r="C91" s="2">
         <v>0.20171906532252701</v>
@@ -13150,10 +13149,10 @@
     </row>
     <row r="92" spans="1:31">
       <c r="A92" s="2">
-        <v>2.3304188198268601</v>
+        <v>23304188198.2686</v>
       </c>
       <c r="B92" s="2">
-        <v>-0.46552914511227</v>
+        <v>-2.3276457255613501</v>
       </c>
       <c r="C92" s="2">
         <v>0.28421298439840098</v>
@@ -13245,10 +13244,10 @@
     </row>
     <row r="93" spans="1:31">
       <c r="A93" s="2">
-        <v>2.33608031861983</v>
+        <v>23360803186.198299</v>
       </c>
       <c r="B93" s="2">
-        <v>0.97651854393166992</v>
+        <v>4.8825927196583496</v>
       </c>
       <c r="C93" s="2">
         <v>0.30343403127445501</v>
@@ -13340,10 +13339,10 @@
     </row>
     <row r="94" spans="1:31">
       <c r="A94" s="2">
-        <v>2.3410723149928501</v>
+        <v>23410723149.928501</v>
       </c>
       <c r="B94" s="2">
-        <v>1.0133246419774</v>
+        <v>5.0666232098870001</v>
       </c>
       <c r="C94" s="2">
         <v>0.30112909600098298</v>
@@ -13435,10 +13434,10 @@
     </row>
     <row r="95" spans="1:31">
       <c r="A95" s="2">
-        <v>2.3442096982526701</v>
+        <v>23442096982.526699</v>
       </c>
       <c r="B95" s="2">
-        <v>-0.28820589455607803</v>
+        <v>-1.4410294727803901</v>
       </c>
       <c r="C95" s="2">
         <v>0.29278727457083098</v>
@@ -13530,10 +13529,10 @@
     </row>
     <row r="96" spans="1:31">
       <c r="A96" s="2">
-        <v>2.3514276550037998</v>
+        <v>23514276550.037998</v>
       </c>
       <c r="B96" s="2">
-        <v>0.21335632781326602</v>
+        <v>1.0667816390663301</v>
       </c>
       <c r="C96" s="2">
         <v>0.309942841859561</v>
@@ -13625,10 +13624,10 @@
     </row>
     <row r="97" spans="1:31">
       <c r="A97" s="2">
-        <v>2.3546117825444002</v>
+        <v>23546117825.444</v>
       </c>
       <c r="B97" s="2">
-        <v>-0.1275917809243948</v>
+        <v>-0.63795890462197402</v>
       </c>
       <c r="C97" s="2">
         <v>0.299077770594042</v>
@@ -13720,10 +13719,10 @@
     </row>
     <row r="98" spans="1:31">
       <c r="A98" s="2">
-        <v>2.35822729136442</v>
+        <v>23582272913.644199</v>
       </c>
       <c r="B98" s="2">
-        <v>0.85772499603563601</v>
+        <v>4.2886249801781799</v>
       </c>
       <c r="C98" s="2">
         <v>0.30507479077793398</v>
@@ -13815,10 +13814,10 @@
     </row>
     <row r="99" spans="1:31">
       <c r="A99" s="2">
-        <v>2.3655707566492299</v>
+        <v>23655707566.492298</v>
       </c>
       <c r="B99" s="2">
-        <v>1.993529006143774</v>
+        <v>9.9676450307188702</v>
       </c>
       <c r="C99" s="2">
         <v>0.20590616165537901</v>
@@ -13910,10 +13909,10 @@
     </row>
     <row r="100" spans="1:31">
       <c r="A100" s="2">
-        <v>2.37146593161299</v>
+        <v>23714659316.129902</v>
       </c>
       <c r="B100" s="2">
-        <v>-1.196242646803986</v>
+        <v>-5.98121323401993</v>
       </c>
       <c r="C100" s="2">
         <v>0.22010349750008501</v>
@@ -14005,10 +14004,10 @@
     </row>
     <row r="101" spans="1:31">
       <c r="A101" s="2">
-        <v>2.3779593837912603</v>
+        <v>23779593837.912601</v>
       </c>
       <c r="B101" s="2">
-        <v>0.70820969343881202</v>
+        <v>3.5410484671940599</v>
       </c>
       <c r="C101" s="2">
         <v>0.30642527156000299</v>
@@ -14100,10 +14099,10 @@
     </row>
     <row r="102" spans="1:31">
       <c r="A102" s="2">
-        <v>2.3794850142116499</v>
+        <v>23794850142.116501</v>
       </c>
       <c r="B102" s="2">
-        <v>1.556278611355874</v>
+        <v>7.7813930567793701</v>
       </c>
       <c r="C102" s="2">
         <v>0.25752083097634298</v>
@@ -14195,10 +14194,10 @@
     </row>
     <row r="103" spans="1:31">
       <c r="A103" s="2">
-        <v>2.3858931834797099</v>
+        <v>23858931834.7971</v>
       </c>
       <c r="B103" s="2">
-        <v>2.1321546127452202</v>
+        <v>10.660773063726101</v>
       </c>
       <c r="C103" s="2">
         <v>0.183105184404107</v>
@@ -14290,10 +14289,10 @@
     </row>
     <row r="104" spans="1:31">
       <c r="A104" s="2">
-        <v>2.3896091075086798</v>
+        <v>23896091075.0868</v>
       </c>
       <c r="B104" s="2">
-        <v>1.1926729048748421</v>
+        <v>5.9633645243742102</v>
       </c>
       <c r="C104" s="2">
         <v>0.28534949487198202</v>
@@ -14385,10 +14384,10 @@
     </row>
     <row r="105" spans="1:31">
       <c r="A105" s="2">
-        <v>2.39565966786666</v>
+        <v>23956596678.666599</v>
       </c>
       <c r="B105" s="2">
-        <v>0.14397547635576841</v>
+        <v>0.71987738177884197</v>
       </c>
       <c r="C105" s="2">
         <v>0.30277324623000501</v>
@@ -14480,10 +14479,10 @@
     </row>
     <row r="106" spans="1:31">
       <c r="A106" s="2">
-        <v>2.4002629892715697</v>
+        <v>24002629892.715698</v>
       </c>
       <c r="B106" s="2">
-        <v>-0.97760374704305808</v>
+        <v>-4.8880187352152902</v>
       </c>
       <c r="C106" s="2">
         <v>0.23758580698139001</v>
@@ -14575,10 +14574,10 @@
     </row>
     <row r="107" spans="1:31">
       <c r="A107" s="2">
-        <v>2.4058952614109002</v>
+        <v>24058952614.109001</v>
       </c>
       <c r="B107" s="2">
-        <v>0.29337583289431801</v>
+        <v>1.4668791644715899</v>
       </c>
       <c r="C107" s="2">
         <v>0.30416346310367898</v>
@@ -14670,10 +14669,10 @@
     </row>
     <row r="108" spans="1:31">
       <c r="A108" s="2">
-        <v>2.41015460831421</v>
+        <v>24101546083.142101</v>
       </c>
       <c r="B108" s="2">
-        <v>2.02994784061246</v>
+        <v>10.1497392030623</v>
       </c>
       <c r="C108" s="2">
         <v>0.19683062898402801</v>
@@ -14765,10 +14764,10 @@
     </row>
     <row r="109" spans="1:31">
       <c r="A109" s="2">
-        <v>2.41931257545275</v>
+        <v>24193125754.5275</v>
       </c>
       <c r="B109" s="2">
-        <v>1.4879110584322459</v>
+        <v>7.4395552921612298</v>
       </c>
       <c r="C109" s="2">
         <v>0.25962946646890001</v>
@@ -14860,10 +14859,10 @@
     </row>
     <row r="110" spans="1:31">
       <c r="A110" s="2">
-        <v>2.4199442104782198</v>
+        <v>24199442104.7822</v>
       </c>
       <c r="B110" s="2">
-        <v>-0.31074729916404198</v>
+        <v>-1.55373649582021</v>
       </c>
       <c r="C110" s="2">
         <v>0.28246368936983901</v>
@@ -14955,10 +14954,10 @@
     </row>
     <row r="111" spans="1:31">
       <c r="A111" s="2">
-        <v>2.4269767069929902</v>
+        <v>24269767069.929901</v>
       </c>
       <c r="B111" s="2">
-        <v>0.72581818959702205</v>
+        <v>3.6290909479851101</v>
       </c>
       <c r="C111" s="2">
         <v>0.29988410721841902</v>
@@ -15050,10 +15049,10 @@
     </row>
     <row r="112" spans="1:31">
       <c r="A112" s="2">
-        <v>2.4329434925411402</v>
+        <v>24329434925.4114</v>
       </c>
       <c r="B112" s="2">
-        <v>1.521441929057658E-2</v>
+        <v>7.6072096452882904E-2</v>
       </c>
       <c r="C112" s="2">
         <v>0.29461950546885401</v>
@@ -15145,10 +15144,10 @@
     </row>
     <row r="113" spans="1:31">
       <c r="A113" s="2">
-        <v>2.4359124180423097</v>
+        <v>24359124180.4231</v>
       </c>
       <c r="B113" s="2">
-        <v>-1.345182461357544</v>
+        <v>-6.7259123067877198</v>
       </c>
       <c r="C113" s="2">
         <v>0.19968291192443</v>
@@ -15240,10 +15239,10 @@
     </row>
     <row r="114" spans="1:31">
       <c r="A114" s="2">
-        <v>2.44184718378856</v>
+        <v>24418471837.885601</v>
       </c>
       <c r="B114" s="2">
-        <v>0.22482920185303201</v>
+        <v>1.1241460092651601</v>
       </c>
       <c r="C114" s="2">
         <v>0.29866846542822001</v>
@@ -15335,10 +15334,10 @@
     </row>
     <row r="115" spans="1:31">
       <c r="A115" s="2">
-        <v>2.4475540312963298</v>
+        <v>24475540312.963299</v>
       </c>
       <c r="B115" s="2">
-        <v>-1.8309316038990642</v>
+        <v>-9.1546580194953204</v>
       </c>
       <c r="C115" s="2">
         <v>0.14619467333878899</v>
@@ -15430,10 +15429,10 @@
     </row>
     <row r="116" spans="1:31">
       <c r="A116" s="2">
-        <v>2.4524788827580002</v>
+        <v>24524788827.580002</v>
       </c>
       <c r="B116" s="2">
-        <v>-0.41772438791185396</v>
+        <v>-2.0886219395592698</v>
       </c>
       <c r="C116" s="2">
         <v>0.27288291420253102</v>
@@ -15525,10 +15524,10 @@
     </row>
     <row r="117" spans="1:31">
       <c r="A117" s="2">
-        <v>2.4570243359984003</v>
+        <v>24570243359.984001</v>
       </c>
       <c r="B117" s="2">
-        <v>-0.40555353984795606</v>
+        <v>-2.0277676992397802</v>
       </c>
       <c r="C117" s="2">
         <v>0.27307323387274501</v>
@@ -15620,10 +15619,10 @@
     </row>
     <row r="118" spans="1:31">
       <c r="A118" s="2">
-        <v>2.4610378963856201</v>
+        <v>24610378963.856201</v>
       </c>
       <c r="B118" s="2">
-        <v>1.7867639377696818</v>
+        <v>8.9338196888484092</v>
       </c>
       <c r="C118" s="2">
         <v>0.224524082214341</v>
@@ -15715,10 +15714,10 @@
     </row>
     <row r="119" spans="1:31">
       <c r="A119" s="2">
-        <v>2.4655119105122201</v>
+        <v>24655119105.1222</v>
       </c>
       <c r="B119" s="2">
-        <v>0.68273167341543206</v>
+        <v>3.4136583670771601</v>
       </c>
       <c r="C119" s="2">
         <v>0.29600187344231499</v>
@@ -15810,10 +15809,10 @@
     </row>
     <row r="120" spans="1:31">
       <c r="A120" s="2">
-        <v>2.46998065086406</v>
+        <v>24699806508.640598</v>
       </c>
       <c r="B120" s="2">
-        <v>2.5330542019295401</v>
+        <v>12.6652710096477</v>
       </c>
       <c r="C120" s="2">
         <v>0.105944045909195</v>
@@ -15905,10 +15904,10 @@
     </row>
     <row r="121" spans="1:31">
       <c r="A121" s="2">
-        <v>2.4767908362114497</v>
+        <v>24767908362.114498</v>
       </c>
       <c r="B121" s="2">
-        <v>1.1289678626027859</v>
+        <v>5.6448393130139296</v>
       </c>
       <c r="C121" s="2">
         <v>0.27894153749397999</v>
@@ -16000,10 +15999,10 @@
     </row>
     <row r="122" spans="1:31">
       <c r="A122" s="2">
-        <v>2.4815079173224901</v>
+        <v>24815079173.224899</v>
       </c>
       <c r="B122" s="2">
-        <v>0.56190657436055602</v>
+        <v>2.8095328718027801</v>
       </c>
       <c r="C122" s="2">
         <v>0.29556165167367199</v>
@@ -16095,10 +16094,10 @@
     </row>
     <row r="123" spans="1:31">
       <c r="A123" s="2">
-        <v>2.4884817923701998</v>
+        <v>24884817923.702</v>
       </c>
       <c r="B123" s="2">
-        <v>-0.20853895306181597</v>
+        <v>-1.0426947653090799</v>
       </c>
       <c r="C123" s="2">
         <v>0.27956408300681601</v>
@@ -16190,10 +16189,10 @@
     </row>
     <row r="124" spans="1:31">
       <c r="A124" s="2">
-        <v>2.4920647297255201</v>
+        <v>24920647297.255199</v>
       </c>
       <c r="B124" s="2">
-        <v>0.10076999365922319</v>
+        <v>0.50384996829611595</v>
       </c>
       <c r="C124" s="2">
         <v>0.29003094638886301</v>
@@ -16285,10 +16284,10 @@
     </row>
     <row r="125" spans="1:31">
       <c r="A125" s="2">
-        <v>2.4967503922165797</v>
+        <v>24967503922.165798</v>
       </c>
       <c r="B125" s="2">
-        <v>0.19735832973560199</v>
+        <v>0.98679164867800995</v>
       </c>
       <c r="C125" s="2">
         <v>0.29161146882671202</v>
@@ -16380,10 +16379,10 @@
     </row>
     <row r="126" spans="1:31">
       <c r="A126" s="2">
-        <v>2.5027654622110402</v>
+        <v>25027654622.110401</v>
       </c>
       <c r="B126" s="2">
-        <v>0.30489976086785597</v>
+        <v>1.52449880433928</v>
       </c>
       <c r="C126" s="2">
         <v>0.29252546164922</v>
@@ -16475,10 +16474,10 @@
     </row>
     <row r="127" spans="1:31">
       <c r="A127" s="2">
-        <v>2.50940576350856</v>
+        <v>25094057635.085602</v>
       </c>
       <c r="B127" s="2">
-        <v>-0.83683444135890195</v>
+        <v>-4.1841722067945097</v>
       </c>
       <c r="C127" s="2">
         <v>0.23857653289978101</v>
@@ -16570,10 +16569,10 @@
     </row>
     <row r="128" spans="1:31">
       <c r="A128" s="2">
-        <v>2.5115112160620399</v>
+        <v>25115112160.620399</v>
       </c>
       <c r="B128" s="2">
-        <v>0.49845416204142196</v>
+        <v>2.4922708102071098</v>
       </c>
       <c r="C128" s="2">
         <v>0.292349881684424</v>
@@ -16665,10 +16664,10 @@
     </row>
     <row r="129" spans="1:31">
       <c r="A129" s="2">
-        <v>2.5195483103831102</v>
+        <v>25195483103.8311</v>
       </c>
       <c r="B129" s="2">
-        <v>0.64658926351298995</v>
+        <v>3.23294631756495</v>
       </c>
       <c r="C129" s="2">
         <v>0.29020306298586901</v>
@@ -16760,10 +16759,10 @@
     </row>
     <row r="130" spans="1:31">
       <c r="A130" s="2">
-        <v>2.52284240858177</v>
+        <v>25228424085.817699</v>
       </c>
       <c r="B130" s="2">
-        <v>1.1519751548845041</v>
+        <v>5.75987577442252</v>
       </c>
       <c r="C130" s="2">
         <v>0.27260149064959599</v>
@@ -16855,10 +16854,10 @@
     </row>
     <row r="131" spans="1:31">
       <c r="A131" s="2">
-        <v>2.5256401488307598</v>
+        <v>25256401488.307598</v>
       </c>
       <c r="B131" s="2">
-        <v>1.5663288377945199</v>
+        <v>7.8316441889726001</v>
       </c>
       <c r="C131" s="2">
         <v>0.241687003575356</v>
@@ -16950,10 +16949,10 @@
     </row>
     <row r="132" spans="1:31">
       <c r="A132" s="2">
-        <v>2.5329020597526197</v>
+        <v>25329020597.526199</v>
       </c>
       <c r="B132" s="2">
-        <v>0.94240637319333798</v>
+        <v>4.71203186596669</v>
       </c>
       <c r="C132" s="2">
         <v>0.28117473531145398</v>
@@ -17045,10 +17044,10 @@
     </row>
     <row r="133" spans="1:31">
       <c r="A133" s="2">
-        <v>2.5395301441290101</v>
+        <v>25395301441.2901</v>
       </c>
       <c r="B133" s="2">
-        <v>6.2135171260182996E-2</v>
+        <v>0.31067585630091499</v>
       </c>
       <c r="C133" s="2">
         <v>0.28360411293337301</v>
@@ -17140,10 +17139,10 @@
     </row>
     <row r="134" spans="1:31">
       <c r="A134" s="2">
-        <v>2.5408829962183996</v>
+        <v>25408829962.183998</v>
       </c>
       <c r="B134" s="2">
-        <v>0.99434289543870613</v>
+        <v>4.9717144771935304</v>
       </c>
       <c r="C134" s="2">
         <v>0.27825072227295899</v>
@@ -17235,10 +17234,10 @@
     </row>
     <row r="135" spans="1:31">
       <c r="A135" s="2">
-        <v>2.5491285444567904</v>
+        <v>25491285444.567902</v>
       </c>
       <c r="B135" s="2">
-        <v>0.43280480738604404</v>
+        <v>2.1640240369302202</v>
       </c>
       <c r="C135" s="2">
         <v>0.288052290581228</v>
@@ -17330,10 +17329,10 @@
     </row>
     <row r="136" spans="1:31">
       <c r="A136" s="2">
-        <v>2.55215855047777</v>
+        <v>25521585504.777699</v>
       </c>
       <c r="B136" s="2">
-        <v>2.7367445489565401</v>
+        <v>13.683722744782701</v>
       </c>
       <c r="C136" s="2">
         <v>6.0653517609996002E-2</v>
@@ -17425,10 +17424,10 @@
     </row>
     <row r="137" spans="1:31">
       <c r="A137" s="2">
-        <v>2.5600709065945098</v>
+        <v>25600709065.945099</v>
       </c>
       <c r="B137" s="2">
-        <v>1.608660467228604</v>
+        <v>8.0433023361430198</v>
       </c>
       <c r="C137" s="2">
         <v>0.234460697804381</v>
@@ -17520,10 +17519,10 @@
     </row>
     <row r="138" spans="1:31">
       <c r="A138" s="2">
-        <v>2.5635994136293898</v>
+        <v>25635994136.2939</v>
       </c>
       <c r="B138" s="2">
-        <v>-0.22592809003854</v>
+        <v>-1.1296404501927</v>
       </c>
       <c r="C138" s="2">
         <v>0.27060849714413798</v>
@@ -17615,10 +17614,10 @@
     </row>
     <row r="139" spans="1:31">
       <c r="A139" s="2">
-        <v>2.5694200976056303</v>
+        <v>25694200976.056301</v>
       </c>
       <c r="B139" s="2">
-        <v>-0.371429359662516</v>
+        <v>-1.85714679831258</v>
       </c>
       <c r="C139" s="2">
         <v>0.262949333216772</v>
@@ -17710,10 +17709,10 @@
     </row>
     <row r="140" spans="1:31">
       <c r="A140" s="2">
-        <v>2.5720825400021701</v>
+        <v>25720825400.021702</v>
       </c>
       <c r="B140" s="2">
-        <v>8.6078203277662399E-2</v>
+        <v>0.43039101638831201</v>
       </c>
       <c r="C140" s="2">
         <v>0.28064153589760599</v>
@@ -17805,10 +17804,10 @@
     </row>
     <row r="141" spans="1:31">
       <c r="A141" s="2">
-        <v>2.5790449546883498</v>
+        <v>25790449546.883499</v>
       </c>
       <c r="B141" s="2">
-        <v>1.6557160471836601</v>
+        <v>8.2785802359182998</v>
       </c>
       <c r="C141" s="2">
         <v>0.22814920900390601</v>
@@ -17900,10 +17899,10 @@
     </row>
     <row r="142" spans="1:31">
       <c r="A142" s="2">
-        <v>2.58252760174482</v>
+        <v>25825276017.4482</v>
       </c>
       <c r="B142" s="2">
-        <v>-0.23696251143022401</v>
+        <v>-1.1848125571511201</v>
       </c>
       <c r="C142" s="2">
         <v>0.26813498059830398</v>
@@ -17995,10 +17994,10 @@
     </row>
     <row r="143" spans="1:31">
       <c r="A143" s="2">
-        <v>2.5904539975777698</v>
+        <v>25904539975.777699</v>
       </c>
       <c r="B143" s="2">
-        <v>0.32947451798813199</v>
+        <v>1.6473725899406599</v>
       </c>
       <c r="C143" s="2">
         <v>0.28287078342126898</v>
@@ -18090,10 +18089,10 @@
     </row>
     <row r="144" spans="1:31">
       <c r="A144" s="2">
-        <v>2.59243479101622</v>
+        <v>25924347910.162201</v>
       </c>
       <c r="B144" s="2">
-        <v>0.87769749278182996</v>
+        <v>4.3884874639091498</v>
       </c>
       <c r="C144" s="2">
         <v>0.276905651028515</v>
@@ -18185,10 +18184,10 @@
     </row>
     <row r="145" spans="1:31">
       <c r="A145" s="2">
-        <v>2.5973324197125098</v>
+        <v>25973324197.125099</v>
       </c>
       <c r="B145" s="2">
-        <v>0.53859730216716006</v>
+        <v>2.6929865108358002</v>
       </c>
       <c r="C145" s="2">
         <v>0.28252861503274002</v>
@@ -18280,10 +18279,10 @@
     </row>
     <row r="146" spans="1:31">
       <c r="A146" s="2">
-        <v>2.6009703280377101</v>
+        <v>26009703280.377102</v>
       </c>
       <c r="B146" s="2">
-        <v>2.3508251898358798</v>
+        <v>11.7541259491794</v>
       </c>
       <c r="C146" s="2">
         <v>0.13339596875020099</v>
@@ -18375,10 +18374,10 @@
     </row>
     <row r="147" spans="1:31">
       <c r="A147" s="2">
-        <v>2.6065891527161598</v>
+        <v>26065891527.161598</v>
       </c>
       <c r="B147" s="2">
-        <v>0.51286238774047399</v>
+        <v>2.5643119387023701</v>
       </c>
       <c r="C147" s="2">
         <v>0.281641673455018</v>
@@ -18470,10 +18469,10 @@
     </row>
     <row r="148" spans="1:31">
       <c r="A148" s="2">
-        <v>2.6119266141636799</v>
+        <v>26119266141.636799</v>
       </c>
       <c r="B148" s="2">
-        <v>0.884985191222594</v>
+        <v>4.4249259561129701</v>
       </c>
       <c r="C148" s="2">
         <v>0.27461124137340498</v>
@@ -18565,10 +18564,10 @@
     </row>
     <row r="149" spans="1:31">
       <c r="A149" s="2">
-        <v>2.61790936239092</v>
+        <v>26179093623.909199</v>
       </c>
       <c r="B149" s="2">
-        <v>2.2947153584906799</v>
+        <v>11.4735767924534</v>
       </c>
       <c r="C149" s="2">
         <v>0.141831820653536</v>
@@ -18660,10 +18659,10 @@
     </row>
     <row r="150" spans="1:31">
       <c r="A150" s="2">
-        <v>2.62391075395389</v>
+        <v>26239107539.538898</v>
       </c>
       <c r="B150" s="2">
-        <v>0.34549019261965797</v>
+        <v>1.7274509630982899</v>
       </c>
       <c r="C150" s="2">
         <v>0.27940134047092202</v>
@@ -18755,10 +18754,10 @@
     </row>
     <row r="151" spans="1:31">
       <c r="A151" s="2">
-        <v>2.63087273434973</v>
+        <v>26308727343.497299</v>
       </c>
       <c r="B151" s="2">
-        <v>-2.43043932797928</v>
+        <v>-12.152196639896401</v>
       </c>
       <c r="C151" s="2">
         <v>6.8258450174516802E-2</v>
@@ -18850,10 +18849,10 @@
     </row>
     <row r="152" spans="1:31">
       <c r="A152" s="2">
-        <v>2.6355573637326901</v>
+        <v>26355573637.3269</v>
       </c>
       <c r="B152" s="2">
-        <v>-4.7368726832216004E-2</v>
+        <v>-0.23684363416108001</v>
       </c>
       <c r="C152" s="2">
         <v>0.27002713955442997</v>
@@ -18945,10 +18944,10 @@
     </row>
     <row r="153" spans="1:31">
       <c r="A153" s="2">
-        <v>2.64130647462708</v>
+        <v>26413064746.270802</v>
       </c>
       <c r="B153" s="2">
-        <v>1.4314460385848</v>
+        <v>7.1572301929239996</v>
       </c>
       <c r="C153" s="2">
         <v>0.242292426423554</v>
@@ -19040,10 +19039,10 @@
     </row>
     <row r="154" spans="1:31">
       <c r="A154" s="2">
-        <v>2.6473284910609003</v>
+        <v>26473284910.609001</v>
       </c>
       <c r="B154" s="2">
-        <v>-0.48413769137798796</v>
+        <v>-2.4206884568899398</v>
       </c>
       <c r="C154" s="2">
         <v>0.24914333630947699</v>
@@ -19135,10 +19134,10 @@
     </row>
     <row r="155" spans="1:31">
       <c r="A155" s="2">
-        <v>2.65106812860162</v>
+        <v>26510681286.016201</v>
       </c>
       <c r="B155" s="2">
-        <v>-0.59737292964969602</v>
+        <v>-2.98686464824848</v>
       </c>
       <c r="C155" s="2">
         <v>0.24206005678488801</v>
@@ -19230,10 +19229,10 @@
     </row>
     <row r="156" spans="1:31">
       <c r="A156" s="2">
-        <v>2.6559295210260898</v>
+        <v>26559295210.260899</v>
       </c>
       <c r="B156" s="2">
-        <v>0.58387801304704001</v>
+        <v>2.9193900652351998</v>
       </c>
       <c r="C156" s="2">
         <v>0.275980331950823</v>
@@ -19325,10 +19324,10 @@
     </row>
     <row r="157" spans="1:31">
       <c r="A157" s="2">
-        <v>2.6604927095801898</v>
+        <v>26604927095.801899</v>
       </c>
       <c r="B157" s="2">
-        <v>2.61778254182944</v>
+        <v>13.0889127091472</v>
       </c>
       <c r="C157" s="2">
         <v>8.2212710830762994E-2</v>
@@ -19420,10 +19419,10 @@
     </row>
     <row r="158" spans="1:31">
       <c r="A158" s="2">
-        <v>2.6657149011351797</v>
+        <v>26657149011.351799</v>
       </c>
       <c r="B158" s="2">
-        <v>1.3355757072433161</v>
+        <v>6.6778785362165802</v>
       </c>
       <c r="C158" s="2">
         <v>0.246974991746336</v>
@@ -19515,10 +19514,10 @@
     </row>
     <row r="159" spans="1:31">
       <c r="A159" s="2">
-        <v>2.6731373176350299</v>
+        <v>26731373176.3503</v>
       </c>
       <c r="B159" s="2">
-        <v>1.52374184425856</v>
+        <v>7.6187092212928</v>
       </c>
       <c r="C159" s="2">
         <v>0.23201796020091101</v>
@@ -19610,10 +19609,10 @@
     </row>
     <row r="160" spans="1:31">
       <c r="A160" s="2">
-        <v>2.67712091353392</v>
+        <v>26771209135.339199</v>
       </c>
       <c r="B160" s="2">
-        <v>1.5922888032520501</v>
+        <v>7.9614440162602502</v>
       </c>
       <c r="C160" s="2">
         <v>0.22569927538109699</v>
@@ -19705,10 +19704,10 @@
     </row>
     <row r="161" spans="1:31">
       <c r="A161" s="2">
-        <v>2.68166988547422</v>
+        <v>26816698854.742199</v>
       </c>
       <c r="B161" s="2">
-        <v>0.1866539570441538</v>
+        <v>0.93326978522076898</v>
       </c>
       <c r="C161" s="2">
         <v>0.27131238641657102</v>
@@ -19800,10 +19799,10 @@
     </row>
     <row r="162" spans="1:31">
       <c r="A162" s="2">
-        <v>2.6860014295708101</v>
+        <v>26860014295.708099</v>
       </c>
       <c r="B162" s="2">
-        <v>1.8661211136975939</v>
+        <v>9.3306055684879698</v>
       </c>
       <c r="C162" s="2">
         <v>0.196851092295974</v>
@@ -19895,10 +19894,10 @@
     </row>
     <row r="163" spans="1:31">
       <c r="A163" s="2">
-        <v>2.6951223351882199</v>
+        <v>26951223351.882198</v>
       </c>
       <c r="B163" s="2">
-        <v>-0.14193738882629481</v>
+        <v>-0.70968694413147404</v>
       </c>
       <c r="C163" s="2">
         <v>0.260757667389307</v>
@@ -19990,10 +19989,10 @@
     </row>
     <row r="164" spans="1:31">
       <c r="A164" s="2">
-        <v>2.7004408417121102</v>
+        <v>27004408417.121101</v>
       </c>
       <c r="B164" s="2">
-        <v>0.50939256992121595</v>
+        <v>2.5469628496060799</v>
       </c>
       <c r="C164" s="2">
         <v>0.27186508145541899</v>
@@ -20085,10 +20084,10 @@
     </row>
     <row r="165" spans="1:31">
       <c r="A165" s="2">
-        <v>2.70081955871624</v>
+        <v>27008195587.162399</v>
       </c>
       <c r="B165" s="2">
-        <v>-1.6010875797215198</v>
+        <v>-8.0054378986075996</v>
       </c>
       <c r="C165" s="2">
         <v>0.15582780037841801</v>
@@ -20180,10 +20179,10 @@
     </row>
     <row r="166" spans="1:31">
       <c r="A166" s="2">
-        <v>2.7090208972780103</v>
+        <v>27090208972.780102</v>
       </c>
       <c r="B166" s="2">
-        <v>-0.27874843933740201</v>
+        <v>-1.39374219668701</v>
       </c>
       <c r="C166" s="2">
         <v>0.25378590138791701</v>
@@ -20275,10 +20274,10 @@
     </row>
     <row r="167" spans="1:31">
       <c r="A167" s="2">
-        <v>2.7146887938892501</v>
+        <v>27146887938.892502</v>
       </c>
       <c r="B167" s="2">
-        <v>1.298204184618492</v>
+        <v>6.49102092309246</v>
       </c>
       <c r="C167" s="2">
         <v>0.24494905234790501</v>
@@ -20370,10 +20369,10 @@
     </row>
     <row r="168" spans="1:31">
       <c r="A168" s="2">
-        <v>2.7205267043786501</v>
+        <v>27205267043.786499</v>
       </c>
       <c r="B168" s="2">
-        <v>0.65932923464808801</v>
+        <v>3.2966461732404402</v>
       </c>
       <c r="C168" s="2">
         <v>0.26859563560429001</v>
@@ -20465,10 +20464,10 @@
     </row>
     <row r="169" spans="1:31">
       <c r="A169" s="2">
-        <v>2.7234941382978999</v>
+        <v>27234941382.979</v>
       </c>
       <c r="B169" s="2">
-        <v>1.328477262951304</v>
+        <v>6.6423863147565196</v>
       </c>
       <c r="C169" s="2">
         <v>0.242204425601065</v>
@@ -20560,10 +20559,10 @@
     </row>
     <row r="170" spans="1:31">
       <c r="A170" s="2">
-        <v>2.7330995570159002</v>
+        <v>27330995570.159</v>
       </c>
       <c r="B170" s="2">
-        <v>0.75715068028705002</v>
+        <v>3.7857534014352501</v>
       </c>
       <c r="C170" s="2">
         <v>0.26568308895145099</v>
@@ -20655,10 +20654,10 @@
     </row>
     <row r="171" spans="1:31">
       <c r="A171" s="2">
-        <v>2.7377718480505</v>
+        <v>27377718480.505001</v>
       </c>
       <c r="B171" s="2">
-        <v>2.1212292551915399E-4</v>
+        <v>1.0606146275957699E-3</v>
       </c>
       <c r="C171" s="2">
         <v>0.26138838099155598</v>
@@ -20750,10 +20749,10 @@
     </row>
     <row r="172" spans="1:31">
       <c r="A172" s="2">
-        <v>2.73982573521885</v>
+        <v>27398257352.188499</v>
       </c>
       <c r="B172" s="2">
-        <v>0.67710481239429199</v>
+        <v>3.3855240619714602</v>
       </c>
       <c r="C172" s="2">
         <v>0.26645067316660997</v>
@@ -20845,10 +20844,10 @@
     </row>
     <row r="173" spans="1:31">
       <c r="A173" s="2">
-        <v>2.7485002377767702</v>
+        <v>27485002377.7677</v>
       </c>
       <c r="B173" s="2">
-        <v>0.31792867015790799</v>
+        <v>1.58964335078954</v>
       </c>
       <c r="C173" s="2">
         <v>0.26650016936829801</v>
@@ -20940,10 +20939,10 @@
     </row>
     <row r="174" spans="1:31">
       <c r="A174" s="2">
-        <v>2.7554530138137001</v>
+        <v>27554530138.137001</v>
       </c>
       <c r="B174" s="2">
-        <v>2.3436008040620799</v>
+        <v>11.718004020310399</v>
       </c>
       <c r="C174" s="2">
         <v>0.12707286218759001</v>
@@ -21035,10 +21034,10 @@
     </row>
     <row r="175" spans="1:31">
       <c r="A175" s="2">
-        <v>2.75986222814034</v>
+        <v>27598622281.4034</v>
       </c>
       <c r="B175" s="2">
-        <v>0.416111613707428</v>
+        <v>2.0805580685371399</v>
       </c>
       <c r="C175" s="2">
         <v>0.26601589926560498</v>
@@ -21130,10 +21129,10 @@
     </row>
     <row r="176" spans="1:31">
       <c r="A176" s="2">
-        <v>2.7649341579489399</v>
+        <v>27649341579.489399</v>
       </c>
       <c r="B176" s="2">
-        <v>0.82860985226970207</v>
+        <v>4.1430492613485104</v>
       </c>
       <c r="C176" s="2">
         <v>0.26097789220254602</v>
@@ -21225,10 +21224,10 @@
     </row>
     <row r="177" spans="1:31">
       <c r="A177" s="2">
-        <v>2.7691204253907697</v>
+        <v>27691204253.9077</v>
       </c>
       <c r="B177" s="2">
-        <v>0.66964624715755394</v>
+        <v>3.3482312357877699</v>
       </c>
       <c r="C177" s="2">
         <v>0.26373961822803199</v>
@@ -21320,10 +21319,10 @@
     </row>
     <row r="178" spans="1:31">
       <c r="A178" s="2">
-        <v>2.77593380074289</v>
+        <v>27759338007.428902</v>
       </c>
       <c r="B178" s="2">
-        <v>1.088105000473778</v>
+        <v>5.44052500236889</v>
       </c>
       <c r="C178" s="2">
         <v>0.25079399800892299</v>
@@ -21415,10 +21414,10 @@
     </row>
     <row r="179" spans="1:31">
       <c r="A179" s="2">
-        <v>2.77962146883816</v>
+        <v>27796214688.381599</v>
       </c>
       <c r="B179" s="2">
-        <v>-0.58555106092004994</v>
+        <v>-2.9277553046002498</v>
       </c>
       <c r="C179" s="2">
         <v>0.23156343063842799</v>
@@ -21510,10 +21509,10 @@
     </row>
     <row r="180" spans="1:31">
       <c r="A180" s="2">
-        <v>2.7882432379795299</v>
+        <v>27882432379.7953</v>
       </c>
       <c r="B180" s="2">
-        <v>0.83885570740020599</v>
+        <v>4.19427853700103</v>
       </c>
       <c r="C180" s="2">
         <v>0.258531767249158</v>
@@ -21605,10 +21604,10 @@
     </row>
     <row r="181" spans="1:31">
       <c r="A181" s="2">
-        <v>2.7945190572956999</v>
+        <v>27945190572.957001</v>
       </c>
       <c r="B181" s="2">
-        <v>-0.192693231299395</v>
+        <v>-0.96346615649697498</v>
       </c>
       <c r="C181" s="2">
         <v>0.24957269245378999</v>
@@ -21700,10 +21699,10 @@
     </row>
     <row r="182" spans="1:31">
       <c r="A182" s="2">
-        <v>2.7986379007581403</v>
+        <v>27986379007.581402</v>
       </c>
       <c r="B182" s="2">
-        <v>0.42067827398506796</v>
+        <v>2.1033913699253399</v>
       </c>
       <c r="C182" s="2">
         <v>0.26234324448846003</v>
@@ -21795,10 +21794,10 @@
     </row>
     <row r="183" spans="1:31">
       <c r="A183" s="2">
-        <v>2.8037545286851397</v>
+        <v>28037545286.851398</v>
       </c>
       <c r="B183" s="2">
-        <v>-1.433020090782374</v>
+        <v>-7.1651004539118697</v>
       </c>
       <c r="C183" s="2">
         <v>0.16567604799715799</v>
@@ -21890,10 +21889,10 @@
     </row>
     <row r="184" spans="1:31">
       <c r="A184" s="2">
-        <v>2.81350961346938</v>
+        <v>28135096134.693802</v>
       </c>
       <c r="B184" s="2">
-        <v>1.2366895639355</v>
+        <v>6.1834478196775002</v>
       </c>
       <c r="C184" s="2">
         <v>0.23995801912378201</v>
@@ -21985,10 +21984,10 @@
     </row>
     <row r="185" spans="1:31">
       <c r="A185" s="2">
-        <v>2.82155199861023</v>
+        <v>28215519986.102299</v>
       </c>
       <c r="B185" s="2">
-        <v>1.2232416380646041</v>
+        <v>6.1162081903230199</v>
       </c>
       <c r="C185" s="2">
         <v>0.24002121246220401</v>
@@ -22080,10 +22079,10 @@
     </row>
     <row r="186" spans="1:31">
       <c r="A186" s="2">
-        <v>2.8249656914169496</v>
+        <v>28249656914.169498</v>
       </c>
       <c r="B186" s="2">
-        <v>2.18179093272368</v>
+        <v>10.908954663618401</v>
       </c>
       <c r="C186" s="2">
         <v>0.14783308318443</v>
@@ -22175,10 +22174,10 @@
     </row>
     <row r="187" spans="1:31">
       <c r="A187" s="2">
-        <v>2.83290212595757</v>
+        <v>28329021259.575699</v>
       </c>
       <c r="B187" s="2">
-        <v>0.91830839569899392</v>
+        <v>4.5915419784949698</v>
       </c>
       <c r="C187" s="2">
         <v>0.25218023023298602</v>
@@ -22270,10 +22269,10 @@
     </row>
     <row r="188" spans="1:31">
       <c r="A188" s="2">
-        <v>2.8395375012244899</v>
+        <v>28395375012.2449</v>
       </c>
       <c r="B188" s="2">
-        <v>4.5405033202216998E-2</v>
+        <v>0.22702516601108499</v>
       </c>
       <c r="C188" s="2">
         <v>0.25322414676662103</v>
@@ -22365,10 +22364,10 @@
     </row>
     <row r="189" spans="1:31">
       <c r="A189" s="2">
-        <v>2.8412667354738899</v>
+        <v>28412667354.738899</v>
       </c>
       <c r="B189" s="2">
-        <v>-1.11546780312534</v>
+        <v>-5.5773390156267002</v>
       </c>
       <c r="C189" s="2">
         <v>0.190188032786206</v>
@@ -22460,10 +22459,10 @@
     </row>
     <row r="190" spans="1:31">
       <c r="A190" s="2">
-        <v>2.8508017010228599</v>
+        <v>28508017010.2286</v>
       </c>
       <c r="B190" s="2">
-        <v>1.0671569677938781</v>
+        <v>5.3357848389693903</v>
       </c>
       <c r="C190" s="2">
         <v>0.24511271792886399</v>
@@ -22555,10 +22554,10 @@
     </row>
     <row r="191" spans="1:31">
       <c r="A191" s="2">
-        <v>2.85510805621686</v>
+        <v>28551080562.168598</v>
       </c>
       <c r="B191" s="2">
-        <v>1.822442711070158</v>
+        <v>9.1122135553507899</v>
       </c>
       <c r="C191" s="2">
         <v>0.18985357600377101</v>
@@ -22650,10 +22649,10 @@
     </row>
     <row r="192" spans="1:31">
       <c r="A192" s="2">
-        <v>2.8605843706877399</v>
+        <v>28605843706.877399</v>
       </c>
       <c r="B192" s="2">
-        <v>0.749856235910486</v>
+        <v>3.7492811795524301</v>
       </c>
       <c r="C192" s="2">
         <v>0.25398493731734001</v>
@@ -22745,10 +22744,10 @@
     </row>
     <row r="193" spans="1:31">
       <c r="A193" s="2">
-        <v>2.8700522075217099</v>
+        <v>28700522075.217098</v>
       </c>
       <c r="B193" s="2">
-        <v>2.0170337989268001E-2</v>
+        <v>0.10085168994634</v>
       </c>
       <c r="C193" s="2">
         <v>0.249880990016809</v>
@@ -22840,10 +22839,10 @@
     </row>
     <row r="194" spans="1:31">
       <c r="A194" s="2">
-        <v>2.8736445103182997</v>
+        <v>28736445103.182999</v>
       </c>
       <c r="B194" s="2">
-        <v>-0.67655726978287201</v>
+        <v>-3.3827863489143599</v>
       </c>
       <c r="C194" s="2">
         <v>0.21862881510738</v>
@@ -22935,10 +22934,10 @@
     </row>
     <row r="195" spans="1:31">
       <c r="A195" s="2">
-        <v>2.8845594379948301</v>
+        <v>28845594379.948299</v>
       </c>
       <c r="B195" s="2">
-        <v>1.2029732398141539</v>
+        <v>6.0148661990707701</v>
       </c>
       <c r="C195" s="2">
         <v>0.23585338368707301</v>
@@ -23030,10 +23029,10 @@
     </row>
     <row r="196" spans="1:31">
       <c r="A196" s="2">
-        <v>2.8861650204744498</v>
+        <v>28861650204.744499</v>
       </c>
       <c r="B196" s="2">
-        <v>0.113855157331717</v>
+        <v>0.56927578665858503</v>
       </c>
       <c r="C196" s="2">
         <v>0.25070832252556502</v>
@@ -23125,10 +23124,10 @@
     </row>
     <row r="197" spans="1:31">
       <c r="A197" s="2">
-        <v>2.8993911779606298</v>
+        <v>28993911779.6063</v>
       </c>
       <c r="B197" s="2">
-        <v>-0.56985422643819406</v>
+        <v>-2.8492711321909701</v>
       </c>
       <c r="C197" s="2">
         <v>0.22287719770637299</v>
@@ -23220,10 +23219,10 @@
     </row>
     <row r="198" spans="1:31">
       <c r="A198" s="2">
-        <v>2.8998726114275502</v>
+        <v>28998726114.275501</v>
       </c>
       <c r="B198" s="2">
-        <v>0.76991825250617807</v>
+        <v>3.8495912625308901</v>
       </c>
       <c r="C198" s="2">
         <v>0.25014905092413098</v>
@@ -23315,10 +23314,10 @@
     </row>
     <row r="199" spans="1:31">
       <c r="A199" s="2">
-        <v>2.9105685206414602</v>
+        <v>29105685206.4146</v>
       </c>
       <c r="B199" s="2">
-        <v>2.2442117743282002</v>
+        <v>11.221058871641</v>
       </c>
       <c r="C199" s="2">
         <v>0.134838754029318</v>
@@ -23410,10 +23409,10 @@
     </row>
     <row r="200" spans="1:31">
       <c r="A200" s="2">
-        <v>2.9159820412564099</v>
+        <v>29159820412.564098</v>
       </c>
       <c r="B200" s="2">
-        <v>2.8617091128479002</v>
+        <v>14.3085455642395</v>
       </c>
       <c r="C200" s="2">
         <v>2.8485066811232099E-2</v>
@@ -23505,10 +23504,10 @@
     </row>
     <row r="201" spans="1:31">
       <c r="A201" s="2">
-        <v>2.9279942151868301</v>
+        <v>29279942151.868301</v>
       </c>
       <c r="B201" s="2">
-        <v>1.623263005157408</v>
+        <v>8.1163150257870402</v>
       </c>
       <c r="C201" s="2">
         <v>0.20376523173703601</v>
@@ -23600,10 +23599,10 @@
     </row>
     <row r="202" spans="1:31">
       <c r="A202" s="2">
-        <v>2.9315276896785196</v>
+        <v>29315276896.785198</v>
       </c>
       <c r="B202" s="2">
-        <v>-0.16489023471694181</v>
+        <v>-0.82445117358470899</v>
       </c>
       <c r="C202" s="2">
         <v>0.238922450320003</v>
@@ -23695,10 +23694,10 @@
     </row>
     <row r="203" spans="1:31">
       <c r="A203" s="2">
-        <v>2.9378634739947103</v>
+        <v>29378634739.947102</v>
       </c>
       <c r="B203" s="2">
-        <v>1.07790315854841</v>
+        <v>5.3895157927420501</v>
       </c>
       <c r="C203" s="2">
         <v>0.23740244993630299</v>
@@ -23790,10 +23789,10 @@
     </row>
     <row r="204" spans="1:31">
       <c r="A204" s="2">
-        <v>2.9445679347154599</v>
+        <v>29445679347.154598</v>
       </c>
       <c r="B204" s="2">
-        <v>1.6784376200445561</v>
+        <v>8.3921881002227803</v>
       </c>
       <c r="C204" s="2">
         <v>0.197821782785009</v>
@@ -23885,10 +23884,10 @@
     </row>
     <row r="205" spans="1:31">
       <c r="A205" s="2">
-        <v>2.9509836410126402</v>
+        <v>29509836410.1264</v>
       </c>
       <c r="B205" s="2">
-        <v>0.26123296390550999</v>
+        <v>1.3061648195275499</v>
       </c>
       <c r="C205" s="2">
         <v>0.24761997692767199</v>
@@ -23980,10 +23979,10 @@
     </row>
     <row r="206" spans="1:31">
       <c r="A206" s="2">
-        <v>2.96298753595193</v>
+        <v>29629875359.519299</v>
       </c>
       <c r="B206" s="2">
-        <v>0.84438326801804597</v>
+        <v>4.22191634009023</v>
       </c>
       <c r="C206" s="2">
         <v>0.24314744122110099</v>
@@ -24075,10 +24074,10 @@
     </row>
     <row r="207" spans="1:31">
       <c r="A207" s="2">
-        <v>2.9654480197301298</v>
+        <v>29654480197.3013</v>
       </c>
       <c r="B207" s="2">
-        <v>-0.39132610659604999</v>
+        <v>-1.95663053298025</v>
       </c>
       <c r="C207" s="2">
         <v>0.22691961319893</v>
@@ -24170,10 +24169,10 @@
     </row>
     <row r="208" spans="1:31">
       <c r="A208" s="2">
-        <v>2.9790881398019402</v>
+        <v>29790881398.019402</v>
       </c>
       <c r="B208" s="2">
-        <v>1.4498924651904099</v>
+        <v>7.2494623259520496</v>
       </c>
       <c r="C208" s="2">
         <v>0.21354934221657601</v>
@@ -24265,10 +24264,10 @@
     </row>
     <row r="209" spans="1:31">
       <c r="A209" s="2">
-        <v>2.9850537328127702</v>
+        <v>29850537328.127701</v>
       </c>
       <c r="B209" s="2">
-        <v>1.3997378789261181</v>
+        <v>6.9986893946305901</v>
       </c>
       <c r="C209" s="2">
         <v>0.216508657188138</v>
@@ -24360,10 +24359,10 @@
     </row>
     <row r="210" spans="1:31">
       <c r="A210" s="2">
-        <v>2.9902655911429998</v>
+        <v>29902655911.43</v>
       </c>
       <c r="B210" s="2">
-        <v>0.14166381088761021</v>
+        <v>0.70831905443805099</v>
       </c>
       <c r="C210" s="2">
         <v>0.24252435266691799</v>
@@ -24455,10 +24454,10 @@
     </row>
     <row r="211" spans="1:31">
       <c r="A211" s="2">
-        <v>3.0011044049374598</v>
+        <v>30011044049.374599</v>
       </c>
       <c r="B211" s="2">
-        <v>-0.34725810265707602</v>
+        <v>-1.7362905132853801</v>
       </c>
       <c r="C211" s="2">
         <v>0.22619803198388999</v>
@@ -24550,10 +24549,10 @@
     </row>
     <row r="212" spans="1:31">
       <c r="A212" s="2">
-        <v>3.0113915095713</v>
+        <v>30113915095.713001</v>
       </c>
       <c r="B212" s="2">
-        <v>-0.683969473681318</v>
+        <v>-3.41984736840659</v>
       </c>
       <c r="C212" s="2">
         <v>0.20819674395392401</v>
@@ -24645,10 +24644,10 @@
     </row>
     <row r="213" spans="1:31">
       <c r="A213" s="2">
-        <v>3.0196697579164904</v>
+        <v>30196697579.164902</v>
       </c>
       <c r="B213" s="2">
-        <v>-1.4817043147508879</v>
+        <v>-7.4085215737544399</v>
       </c>
       <c r="C213" s="2">
         <v>0.14971862415317699</v>
@@ -24740,10 +24739,10 @@
     </row>
     <row r="214" spans="1:31">
       <c r="A214" s="2">
-        <v>3.0311099546946001</v>
+        <v>30311099546.945999</v>
       </c>
       <c r="B214" s="2">
-        <v>0.28064873433262599</v>
+        <v>1.40324367166313</v>
       </c>
       <c r="C214" s="2">
         <v>0.24129314866725701</v>
@@ -24835,10 +24834,10 @@
     </row>
     <row r="215" spans="1:31">
       <c r="A215" s="2">
-        <v>3.0317067962998201</v>
+        <v>30317067962.998199</v>
       </c>
       <c r="B215" s="2">
-        <v>1.850981510253962</v>
+        <v>9.2549075512698096</v>
       </c>
       <c r="C215" s="2">
         <v>0.17594425782224299</v>
@@ -24930,10 +24929,10 @@
     </row>
     <row r="216" spans="1:31">
       <c r="A216" s="2">
-        <v>3.0453618532498599</v>
+        <v>30453618532.4986</v>
       </c>
       <c r="B216" s="2">
-        <v>-1.7500774758520699</v>
+        <v>-8.7503873792603493</v>
       </c>
       <c r="C216" s="2">
         <v>0.124912442919121</v>
@@ -25025,10 +25024,10 @@
     </row>
     <row r="217" spans="1:31">
       <c r="A217" s="2">
-        <v>3.0514845125101897</v>
+        <v>30514845125.101898</v>
       </c>
       <c r="B217" s="2">
-        <v>1.1784600075815719</v>
+        <v>5.8923000379078596</v>
       </c>
       <c r="C217" s="2">
         <v>0.22414036452694799</v>
@@ -25120,10 +25119,10 @@
     </row>
     <row r="218" spans="1:31">
       <c r="A218" s="2">
-        <v>3.06747500946399</v>
+        <v>30674750094.6399</v>
       </c>
       <c r="B218" s="2">
-        <v>1.4602455117742079</v>
+        <v>7.30122755887104</v>
       </c>
       <c r="C218" s="2">
         <v>0.20669185195787401</v>
@@ -25215,10 +25214,10 @@
     </row>
     <row r="219" spans="1:31">
       <c r="A219" s="2">
-        <v>3.0687886141207499</v>
+        <v>30687886141.2075</v>
       </c>
       <c r="B219" s="2">
-        <v>1.4741885671582879</v>
+        <v>7.3709428357914399</v>
       </c>
       <c r="C219" s="2">
         <v>0.20564227631024001</v>
@@ -25310,10 +25309,10 @@
     </row>
     <row r="220" spans="1:31">
       <c r="A220" s="2">
-        <v>3.085531735499</v>
+        <v>30855317354.990002</v>
       </c>
       <c r="B220" s="2">
-        <v>1.096485786194028</v>
+        <v>5.4824289309701397</v>
       </c>
       <c r="C220" s="2">
         <v>0.225286488848886</v>
@@ -25405,10 +25404,10 @@
     </row>
     <row r="221" spans="1:31">
       <c r="A221" s="2">
-        <v>3.0942157018005298</v>
+        <v>30942157018.005299</v>
       </c>
       <c r="B221" s="2">
-        <v>1.029298395103746</v>
+        <v>5.1464919755187299</v>
       </c>
       <c r="C221" s="2">
         <v>0.22725980872572199</v>
@@ -25500,10 +25499,10 @@
     </row>
     <row r="222" spans="1:31">
       <c r="A222" s="2">
-        <v>3.10579718484159</v>
+        <v>31057971848.415901</v>
       </c>
       <c r="B222" s="2">
-        <v>0.26972712414738198</v>
+        <v>1.3486356207369099</v>
       </c>
       <c r="C222" s="2">
         <v>0.23537301761617199</v>
@@ -25595,10 +25594,10 @@
     </row>
     <row r="223" spans="1:31">
       <c r="A223" s="2">
-        <v>3.1107336724211603</v>
+        <v>31107336724.211601</v>
       </c>
       <c r="B223" s="2">
-        <v>2.22230144848626</v>
+        <v>11.1115072424313</v>
       </c>
       <c r="C223" s="2">
         <v>0.129041525686869</v>
@@ -25690,10 +25689,10 @@
     </row>
     <row r="224" spans="1:31">
       <c r="A224" s="2">
-        <v>3.1268620805438201</v>
+        <v>31268620805.438202</v>
       </c>
       <c r="B224" s="2">
-        <v>2.0886366224651001</v>
+        <v>10.443183112325499</v>
       </c>
       <c r="C224" s="2">
         <v>0.14493464742232501</v>
@@ -25785,10 +25784,10 @@
     </row>
     <row r="225" spans="1:31">
       <c r="A225" s="2">
-        <v>3.1321083857843899</v>
+        <v>31321083857.843899</v>
       </c>
       <c r="B225" s="2">
-        <v>-0.24303074836359201</v>
+        <v>-1.2151537418179601</v>
       </c>
       <c r="C225" s="2">
         <v>0.22086153446196399</v>
@@ -25880,10 +25879,10 @@
     </row>
     <row r="226" spans="1:31">
       <c r="A226" s="2">
-        <v>3.1415417432113997</v>
+        <v>31415417432.113998</v>
       </c>
       <c r="B226" s="2">
-        <v>0.61273692923193401</v>
+        <v>3.0636846461596701</v>
       </c>
       <c r="C226" s="2">
         <v>0.23308555757039301</v>
@@ -25975,10 +25974,10 @@
     </row>
     <row r="227" spans="1:31">
       <c r="A227" s="2">
-        <v>3.1526629082431099</v>
+        <v>31526629082.431099</v>
       </c>
       <c r="B227" s="2">
-        <v>1.362673685353508</v>
+        <v>6.8133684267675401</v>
       </c>
       <c r="C227" s="2">
         <v>0.207247539374148</v>
@@ -26070,10 +26069,10 @@
     </row>
     <row r="228" spans="1:31">
       <c r="A228" s="2">
-        <v>3.1668232983111002</v>
+        <v>31668232983.111</v>
       </c>
       <c r="B228" s="2">
-        <v>-6.07736607854064E-2</v>
+        <v>-0.30386830392703201</v>
       </c>
       <c r="C228" s="2">
         <v>0.224355726394043</v>
@@ -26165,10 +26164,10 @@
     </row>
     <row r="229" spans="1:31">
       <c r="A229" s="2">
-        <v>3.18824842399387</v>
+        <v>31882484239.938702</v>
       </c>
       <c r="B229" s="2">
-        <v>0.37016066743210196</v>
+        <v>1.8508033371605099</v>
       </c>
       <c r="C229" s="2">
         <v>0.230091912513603</v>
@@ -26260,10 +26259,10 @@
     </row>
     <row r="230" spans="1:31">
       <c r="A230" s="2">
-        <v>3.1990264827719201</v>
+        <v>31990264827.7192</v>
       </c>
       <c r="B230" s="2">
-        <v>0.80395113833472198</v>
+        <v>4.0197556916736099</v>
       </c>
       <c r="C230" s="2">
         <v>0.22609179494756401</v>
@@ -26355,10 +26354,10 @@
     </row>
     <row r="231" spans="1:31">
       <c r="A231" s="2">
-        <v>3.2056166351236803</v>
+        <v>32056166351.236801</v>
       </c>
       <c r="B231" s="2">
-        <v>-0.62708357579712204</v>
+        <v>-3.13541787898561</v>
       </c>
       <c r="C231" s="2">
         <v>0.19863920531617499</v>
@@ -26450,10 +26449,10 @@
     </row>
     <row r="232" spans="1:31">
       <c r="A232" s="2">
-        <v>3.2297384102710898</v>
+        <v>32297384102.710899</v>
       </c>
       <c r="B232" s="2">
-        <v>0.54279058899755406</v>
+        <v>2.7139529449877702</v>
       </c>
       <c r="C232" s="2">
         <v>0.22718853299345501</v>
@@ -26545,10 +26544,10 @@
     </row>
     <row r="233" spans="1:31">
       <c r="A233" s="2">
-        <v>3.24225895867855</v>
+        <v>32422589586.7855</v>
       </c>
       <c r="B233" s="2">
-        <v>1.7398296869522081</v>
+        <v>8.6991484347610406</v>
       </c>
       <c r="C233" s="2">
         <v>0.17453735807305501</v>
@@ -26640,10 +26639,10 @@
     </row>
     <row r="234" spans="1:31">
       <c r="A234" s="2">
-        <v>3.25483144712801</v>
+        <v>32548314471.280102</v>
       </c>
       <c r="B234" s="2">
-        <v>-0.1583604767081592</v>
+        <v>-0.79180238354079602</v>
       </c>
       <c r="C234" s="2">
         <v>0.21539947348425301</v>
@@ -26735,10 +26734,10 @@
     </row>
     <row r="235" spans="1:31">
       <c r="A235" s="2">
-        <v>3.2719335671344503</v>
+        <v>32719335671.344501</v>
       </c>
       <c r="B235" s="2">
-        <v>-1.2637858963013819</v>
+        <v>-6.3189294815069097</v>
       </c>
       <c r="C235" s="2">
         <v>0.15467776585635801</v>
@@ -26830,10 +26829,10 @@
     </row>
     <row r="236" spans="1:31">
       <c r="A236" s="2">
-        <v>3.2930434338569001</v>
+        <v>32930434338.569</v>
       </c>
       <c r="B236" s="2">
-        <v>-0.74779422187148603</v>
+        <v>-3.73897110935743</v>
       </c>
       <c r="C236" s="2">
         <v>0.186907412902999</v>
@@ -26925,10 +26924,10 @@
     </row>
     <row r="237" spans="1:31">
       <c r="A237" s="2">
-        <v>3.3041996712180999</v>
+        <v>33041996712.181</v>
       </c>
       <c r="B237" s="2">
-        <v>1.511445080746862</v>
+        <v>7.5572254037343098</v>
       </c>
       <c r="C237" s="2">
         <v>0.18853726535659901</v>
@@ -27020,10 +27019,10 @@
     </row>
     <row r="238" spans="1:31">
       <c r="A238" s="2">
-        <v>3.3310409311070899</v>
+        <v>33310409311.0709</v>
       </c>
       <c r="B238" s="2">
-        <v>-1.0489392801214419</v>
+        <v>-5.2446964006072099</v>
       </c>
       <c r="C238" s="2">
         <v>0.16662854172473399</v>
@@ -27115,10 +27114,10 @@
     </row>
     <row r="239" spans="1:31">
       <c r="A239" s="2">
-        <v>3.3510128245363098</v>
+        <v>33510128245.363098</v>
       </c>
       <c r="B239" s="2">
-        <v>-8.7850959826984792E-2</v>
+        <v>-0.43925479913492399</v>
       </c>
       <c r="C239" s="2">
         <v>0.21128893301482099</v>
@@ -27210,10 +27209,10 @@
     </row>
     <row r="240" spans="1:31">
       <c r="A240" s="2">
-        <v>3.3729001023113998</v>
+        <v>33729001023.113998</v>
       </c>
       <c r="B240" s="2">
-        <v>0.73780592674769196</v>
+        <v>3.68902963373846</v>
       </c>
       <c r="C240" s="2">
         <v>0.21559918787295199</v>
@@ -27305,10 +27304,10 @@
     </row>
     <row r="241" spans="1:31">
       <c r="A241" s="2">
-        <v>3.3970357029553102</v>
+        <v>33970357029.553101</v>
       </c>
       <c r="B241" s="2">
-        <v>2.4953723140897601</v>
+        <v>12.476861570448801</v>
       </c>
       <c r="C241" s="2">
         <v>8.2455240209600406E-2</v>
@@ -27400,10 +27399,10 @@
     </row>
     <row r="242" spans="1:31">
       <c r="A242" s="2">
-        <v>3.4125539299456502</v>
+        <v>34125539299.456501</v>
       </c>
       <c r="B242" s="2">
-        <v>0.69264980268803999</v>
+        <v>3.4632490134401999</v>
       </c>
       <c r="C242" s="2">
         <v>0.21373190856496699</v>
@@ -27495,10 +27494,10 @@
     </row>
     <row r="243" spans="1:31">
       <c r="A243" s="2">
-        <v>3.43633294755168</v>
+        <v>34363329475.5168</v>
       </c>
       <c r="B243" s="2">
-        <v>0.55224135183095202</v>
+        <v>2.76120675915476</v>
       </c>
       <c r="C243" s="2">
         <v>0.21348614333177199</v>
@@ -27590,10 +27589,10 @@
     </row>
     <row r="244" spans="1:31">
       <c r="A244" s="2">
-        <v>3.4828294372713202</v>
+        <v>34828294372.713203</v>
       </c>
       <c r="B244" s="2">
-        <v>1.5376696057744781</v>
+        <v>7.6883480288723902</v>
       </c>
       <c r="C244" s="2">
         <v>0.17717160993233</v>
@@ -27685,10 +27684,10 @@
     </row>
     <row r="245" spans="1:31">
       <c r="A245" s="2">
-        <v>3.5235077145227898</v>
+        <v>35235077145.227898</v>
       </c>
       <c r="B245" s="2">
-        <v>-0.81415121171531002</v>
+        <v>-4.0707560585765501</v>
       </c>
       <c r="C245" s="2">
         <v>0.17115198814686999</v>
@@ -27780,10 +27779,10 @@
     </row>
     <row r="246" spans="1:31">
       <c r="A246" s="2">
-        <v>3.5457432451299895</v>
+        <v>35457432451.299896</v>
       </c>
       <c r="B246" s="2">
-        <v>1.414305292066514</v>
+        <v>7.0715264603325698</v>
       </c>
       <c r="C246" s="2">
         <v>0.18146126108786101</v>
@@ -27875,10 +27874,10 @@
     </row>
     <row r="247" spans="1:31">
       <c r="A247" s="2">
-        <v>3.6218913488371101</v>
+        <v>36218913488.371101</v>
       </c>
       <c r="B247" s="2">
-        <v>0.960321837150236</v>
+        <v>4.8016091857511798</v>
       </c>
       <c r="C247" s="2">
         <v>0.196158141764252</v>
@@ -27970,10 +27969,10 @@
     </row>
     <row r="248" spans="1:31">
       <c r="A248" s="2">
-        <v>3.6356731957407797</v>
+        <v>36356731957.407799</v>
       </c>
       <c r="B248" s="2">
-        <v>-0.78194691576310804</v>
+        <v>-3.9097345788155402</v>
       </c>
       <c r="C248" s="2">
         <v>0.16754997274879399</v>
@@ -28065,10 +28064,10 @@
     </row>
     <row r="249" spans="1:31">
       <c r="A249" s="2">
-        <v>3.8155932880980599</v>
+        <v>38155932880.980598</v>
       </c>
       <c r="B249" s="2">
-        <v>-0.93149048771953002</v>
+        <v>-4.6574524385976499</v>
       </c>
       <c r="C249" s="2">
         <v>0.15196031786061301</v>
@@ -29552,4172 +29551,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7868C-DB6F-4760-9247-F0BCA6BEDEE4}">
-  <dimension ref="A1:D291"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>11717091985.5299</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.7521164335117601</v>
-      </c>
-      <c r="C2">
-        <f>A2/10000000000</f>
-        <v>1.1717091985529899</v>
-      </c>
-      <c r="D2">
-        <f>B2/5</f>
-        <v>0.35042328670235201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>12335335987.564501</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.5023912001795594</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">A3/10000000000</f>
-        <v>1.2335335987564502</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">B3/5</f>
-        <v>1.700478240035912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>13189394610.5877</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.0197124551620398</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.3189394610587699</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0.40394249103240798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>13988368740.957701</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3.9771996478042801</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1.3988368740957702</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.79543992956085607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>14481390344.8216</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.65449428804041498</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.4481390344821601</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0.13089885760808301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>14935522681.6346</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9.49406175755351</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.4935522681634599</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1.898812351510702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>15218876738.9345</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.3260688499329398</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.5218876738934499</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.46521376998658798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>15558747222.3053</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-2.63490723056786</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.55587472223053</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>-0.52698144611357201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>15790057167.191601</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4.6599233800343098</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.57900571671916</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.93198467600686197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>16007212555.5203</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3.1807167664882199</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.60072125555203</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.63614335329764393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>16438133077.748699</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.14571456545522199</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.64381330777487</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2.9142913091044397E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>16587212411.560301</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-4.4677785998859498</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1.6587212411560301</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>-0.89355571997718997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>16765574602.3908</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.0162653992186399</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.67655746023908</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.20325307984372798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>16994240002.2351</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.10798702334674699</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.6994240002235099</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>-2.1597404669349399E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>17098444332.097799</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6.0904690932894701</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1.70984443320978</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>1.218093818657894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>17319030673.0466</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-3.2702404206272799</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1.73190306730466</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>-0.65404808412545601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>17431407814.791302</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3.0438729367189898</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.7431407814791302</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.60877458734379797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>17665460247.065201</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-1.6763665214729699</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.7665460247065201</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>-0.33527330429459401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>17815773953.4902</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.0568254329149998</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1.7815773953490199</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>1.011365086583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>17950668756.522202</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5.84081842788716</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.7950668756522201</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>1.168163685577432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>18092453499.2962</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.0444542520075792</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.8092453499296199</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1.8088908504015158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <v>18188460068.5742</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8.5930049224787108</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1.8188460068574199</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>1.7186009844957422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>18242735359.5154</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.468209775213071</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1.8242735359515401</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>9.3641955042614203E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>18390952994.405998</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1.7964641127227501</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1.8390952994405998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.35929282254455003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <v>18573225827.0411</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.2385369836531399</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1.85732258270411</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0.24770739673062797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
-        <v>18680963323.6749</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.16400697079733</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1.86809633236749</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0.23280139415946599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
-        <v>18724276423.3703</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5.1863175283657101</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1.8724276423370301</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>1.0372635056731421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
-        <v>18842848699.296398</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.4155414590406998</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1.8842848699296397</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0.48310829180813997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <v>19009640232.6385</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9.7299798571222507</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1.9009640232638501</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>1.9459959714244501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
-        <v>19072564531.768902</v>
-      </c>
-      <c r="B31" s="2">
-        <v>-0.92427071262489702</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1.9072564531768901</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>-0.18485414252497939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
-        <v>19175258903.2047</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5.5213988299240198</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1.9175258903204699</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>1.104279765984804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
-        <v>19293499555.304501</v>
-      </c>
-      <c r="B33" s="2">
-        <v>-4.9594807262677998</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>1.9293499555304501</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>-0.99189614525355996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
-        <v>19401236189.6707</v>
-      </c>
-      <c r="B34" s="2">
-        <v>-3.57456919170356</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>1.9401236189670701</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>-0.71491383834071198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
-        <v>19459742560.139999</v>
-      </c>
-      <c r="B35" s="2">
-        <v>6.3330357012527401</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.9459742560139999</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>1.2666071402505481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
-        <v>19512427377.793301</v>
-      </c>
-      <c r="B36" s="2">
-        <v>-0.57005741844067803</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1.95124273777933</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>-0.1140114836881356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
-        <v>19661276946.2789</v>
-      </c>
-      <c r="B37" s="2">
-        <v>-3.8522332780429198</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>1.9661276946278901</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>-0.77044665560858394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
-        <v>19737395521.2258</v>
-      </c>
-      <c r="B38" s="2">
-        <v>6.9813199143946303</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>1.97373955212258</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>1.3962639828789261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
-        <v>19828338434.567799</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8.1663215150250092</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>1.9828338434567798</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>1.6332643030050018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
-        <v>19895608525.0331</v>
-      </c>
-      <c r="B40" s="2">
-        <v>-1.2805454815178501</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>1.9895608525033099</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>-0.25610909630357004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
-        <v>19999047219.2486</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4.9239276486121</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>1.99990472192486</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.98478552972241995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
-        <v>20101690469.462799</v>
-      </c>
-      <c r="B42" s="2">
-        <v>-0.158982588241384</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>2.0101690469462801</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>-3.1796517648276804E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
-        <v>20135438291.9021</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.85882279090954705</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>2.0135438291902101</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>0.17176455818190942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
-        <v>20207881667.321098</v>
-      </c>
-      <c r="B44" s="2">
-        <v>6.7678607457218103</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>2.0207881667321099</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>1.353572149144362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
-        <v>20301275500.748199</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2.3897775394904102</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>2.0301275500748202</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.47795550789808205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
-        <v>20414161392.841301</v>
-      </c>
-      <c r="B46" s="2">
-        <v>-6.0048535756106904</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>2.0414161392841299</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>-1.200970715122138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
-        <v>20450909208.342999</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.9189599199761</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>2.0450909208343</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>0.38379198399522002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
-        <v>20506762662.1521</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2.2290541241739001</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>2.05067626621521</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.44581082483478002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
-        <v>20616814853.143002</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4.08395263018246</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>2.0616814853143</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>0.81679052603649205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
-        <v>20657096286.307301</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4.5780544090793898</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2.0657096286307302</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>0.91561088181587791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
-        <v>20779155802.146301</v>
-      </c>
-      <c r="B51" s="2">
-        <v>-2.6814440335626402</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>2.0779155802146301</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>-0.53628880671252799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
-        <v>20818910505.986</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.35728960564620499</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>2.0818910505986001</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>7.1457921129241E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
-        <v>20885216990.692001</v>
-      </c>
-      <c r="B53" s="2">
-        <v>2.9637676475835</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>2.0885216990691999</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0.59275352951670002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
-        <v>20983815631.916599</v>
-      </c>
-      <c r="B54" s="2">
-        <v>3.1128513950216301</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>2.0983815631916598</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>0.62257027900432604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
-        <v>21061981501.844002</v>
-      </c>
-      <c r="B55" s="2">
-        <v>6.4192125567631297</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>2.1061981501844</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>1.2838425113526259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
-        <v>21125106076.560398</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3.5610343185313802</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>2.1125106076560396</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>0.71220686370627606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
-        <v>21149483128.028599</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2.2892326777309302</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>2.1149483128028597</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>0.45784653554618604</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
-        <v>21269928532.832699</v>
-      </c>
-      <c r="B58" s="2">
-        <v>-1.59650971334409</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>2.1269928532832698</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>-0.31930194266881801</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
-        <v>21324879027.619598</v>
-      </c>
-      <c r="B59" s="2">
-        <v>8.8051981212947297</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>2.1324879027619597</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>1.7610396242589459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
-        <v>21394110132.608501</v>
-      </c>
-      <c r="B60" s="2">
-        <v>10.533611847108</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>2.1394110132608501</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>2.1067223694216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
-        <v>21461296953.625999</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2.8851075910218702</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>2.1461296953626001</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>0.57702151820437408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
-        <v>21501199541.545898</v>
-      </c>
-      <c r="B62" s="2">
-        <v>-2.2583689688130701</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>2.1501199541545897</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>-0.45167379376261402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
-        <v>21553452738.335201</v>
-      </c>
-      <c r="B63" s="2">
-        <v>2.61152057560972</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>2.1553452738335199</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>0.52230411512194397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
-        <v>21610594504.299099</v>
-      </c>
-      <c r="B64" s="2">
-        <v>5.5722640705722899</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>2.1610594504299101</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>1.1144528141144581</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
-        <v>21684728606.0256</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4.32989452279209</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>2.1684728606025598</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>0.86597890455841797</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
-        <v>21736583988.399101</v>
-      </c>
-      <c r="B66" s="2">
-        <v>-0.47074043274988397</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>2.1736583988399101</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>-9.4148086549976792E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
-        <v>21793532374.598301</v>
-      </c>
-      <c r="B67" s="2">
-        <v>0.81667698701858005</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C130" si="2">A67/10000000000</f>
-        <v>2.1793532374598299</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">B67/5</f>
-        <v>0.163335397403716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
-        <v>21901295452.397701</v>
-      </c>
-      <c r="B68" s="2">
-        <v>6.3526788007535702</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="2"/>
-        <v>2.19012954523977</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="3"/>
-        <v>1.2705357601507141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
-        <v>21949817622.114799</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9.7820478666196706</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="2"/>
-        <v>2.19498176221148</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="3"/>
-        <v>1.9564095733239342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
-        <v>22022777314.502399</v>
-      </c>
-      <c r="B70" s="2">
-        <v>-4.40192743447271</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="2"/>
-        <v>2.20227773145024</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
-        <v>-0.88038548689454199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
-        <v>22030381368.3545</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1.56753342952372</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="2"/>
-        <v>2.2030381368354499</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>0.31350668590474401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
-        <v>22093988785.235298</v>
-      </c>
-      <c r="B72" s="2">
-        <v>-2.1589727387489899</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="2"/>
-        <v>2.2093988785235297</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="3"/>
-        <v>-0.43179454774979797</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
-        <v>22175661927.100601</v>
-      </c>
-      <c r="B73" s="2">
-        <v>-7.0712676272870506E-2</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="2"/>
-        <v>2.2175661927100601</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="3"/>
-        <v>-1.4142535254574101E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
-        <v>22224874595.929501</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5.7206414867543103</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="2"/>
-        <v>2.22248745959295</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="3"/>
-        <v>1.144128297350862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
-        <v>22262828517.350498</v>
-      </c>
-      <c r="B75" s="2">
-        <v>-5.4101380968191801</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="2"/>
-        <v>2.2262828517350499</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="3"/>
-        <v>-1.0820276193638361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
-        <v>22346965596.472099</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6.5518657524941704</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="2"/>
-        <v>2.2346965596472099</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="3"/>
-        <v>1.3103731504988341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
-        <v>22388448994.270199</v>
-      </c>
-      <c r="B77" s="2">
-        <v>-0.35238237661376998</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="2"/>
-        <v>2.2388448994270198</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="3"/>
-        <v>-7.0476475322754001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
-        <v>22478567818.5639</v>
-      </c>
-      <c r="B78" s="2">
-        <v>9.5482747800460608</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="2"/>
-        <v>2.2478567818563899</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="3"/>
-        <v>1.9096549560092122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
-        <v>22528702479.133202</v>
-      </c>
-      <c r="B79" s="2">
-        <v>3.8603060686939599</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="2"/>
-        <v>2.2528702479133202</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="3"/>
-        <v>0.772061213738792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
-        <v>22561169515.4011</v>
-      </c>
-      <c r="B80" s="2">
-        <v>12.011893406424401</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="2"/>
-        <v>2.2561169515401098</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="3"/>
-        <v>2.4023786812848802</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
-        <v>22609461103.747799</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4.78330229462542</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="2"/>
-        <v>2.2609461103747801</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
-        <v>0.956660458925084</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
-        <v>22667254208.441002</v>
-      </c>
-      <c r="B82" s="2">
-        <v>3.909844355173</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="2"/>
-        <v>2.2667254208441001</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
-        <v>0.7819688710346</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
-        <v>22731952122.963799</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5.2401008767614004</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="2"/>
-        <v>2.2731952122963799</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
-        <v>1.04802017535228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
-        <v>22779483417.323002</v>
-      </c>
-      <c r="B84" s="2">
-        <v>6.8765909272912404</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="2"/>
-        <v>2.2779483417323001</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
-        <v>1.3753181854582481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
-        <v>22854291022.085201</v>
-      </c>
-      <c r="B85" s="2">
-        <v>13.769942234079201</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="2"/>
-        <v>2.28542910220852</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="3"/>
-        <v>2.75398844681584</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
-        <v>22990467803.913898</v>
-      </c>
-      <c r="B86" s="2">
-        <v>6.2327348818737303</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="2"/>
-        <v>2.2990467803913899</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="3"/>
-        <v>1.2465469763747461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
-        <v>23043462561.477699</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1.94688772548759</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="2"/>
-        <v>2.3043462561477699</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="3"/>
-        <v>0.38937754509751799</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
-        <v>23074215498.951302</v>
-      </c>
-      <c r="B88" s="2">
-        <v>8.4615067074160102</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="2"/>
-        <v>2.30742154989513</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="3"/>
-        <v>1.692301341483202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
-        <v>23124107639.918598</v>
-      </c>
-      <c r="B89" s="2">
-        <v>-2.5073582017837399</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="2"/>
-        <v>2.3124107639918599</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="3"/>
-        <v>-0.50147164035674796</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
-        <v>23197410792.590401</v>
-      </c>
-      <c r="B90" s="2">
-        <v>4.5109486555837499</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="2"/>
-        <v>2.3197410792590403</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="3"/>
-        <v>0.90218973111674994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
-        <v>23238836587.135601</v>
-      </c>
-      <c r="B91" s="2">
-        <v>10.228790991865999</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="2"/>
-        <v>2.3238836587135601</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="3"/>
-        <v>2.0457581983731998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
-        <v>23304188198.2686</v>
-      </c>
-      <c r="B92" s="2">
-        <v>-2.3276457255613501</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="2"/>
-        <v>2.3304188198268601</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="3"/>
-        <v>-0.46552914511227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
-        <v>23360803186.198299</v>
-      </c>
-      <c r="B93" s="2">
-        <v>4.8825927196583496</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="2"/>
-        <v>2.33608031861983</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="3"/>
-        <v>0.97651854393166992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
-        <v>23410723149.928501</v>
-      </c>
-      <c r="B94" s="2">
-        <v>5.0666232098870001</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="2"/>
-        <v>2.3410723149928501</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="3"/>
-        <v>1.0133246419774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
-        <v>23442096982.526699</v>
-      </c>
-      <c r="B95" s="2">
-        <v>-1.4410294727803901</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="2"/>
-        <v>2.3442096982526701</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="3"/>
-        <v>-0.28820589455607803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
-        <v>23514276550.037998</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1.0667816390663301</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="2"/>
-        <v>2.3514276550037998</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="3"/>
-        <v>0.21335632781326602</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
-        <v>23546117825.444</v>
-      </c>
-      <c r="B97" s="2">
-        <v>-0.63795890462197402</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="2"/>
-        <v>2.3546117825444002</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="3"/>
-        <v>-0.1275917809243948</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
-        <v>23582272913.644199</v>
-      </c>
-      <c r="B98" s="2">
-        <v>4.2886249801781799</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="2"/>
-        <v>2.35822729136442</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="3"/>
-        <v>0.85772499603563601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
-        <v>23655707566.492298</v>
-      </c>
-      <c r="B99" s="2">
-        <v>9.9676450307188702</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="2"/>
-        <v>2.3655707566492299</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="3"/>
-        <v>1.993529006143774</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
-        <v>23714659316.129902</v>
-      </c>
-      <c r="B100" s="2">
-        <v>-5.98121323401993</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="2"/>
-        <v>2.37146593161299</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="3"/>
-        <v>-1.196242646803986</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
-        <v>23779593837.912601</v>
-      </c>
-      <c r="B101" s="2">
-        <v>3.5410484671940599</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="2"/>
-        <v>2.3779593837912603</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="3"/>
-        <v>0.70820969343881202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
-        <v>23794850142.116501</v>
-      </c>
-      <c r="B102" s="2">
-        <v>7.7813930567793701</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="2"/>
-        <v>2.3794850142116499</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="3"/>
-        <v>1.556278611355874</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
-        <v>23858931834.7971</v>
-      </c>
-      <c r="B103" s="2">
-        <v>10.660773063726101</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="2"/>
-        <v>2.3858931834797099</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="3"/>
-        <v>2.1321546127452202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
-        <v>23896091075.0868</v>
-      </c>
-      <c r="B104" s="2">
-        <v>5.9633645243742102</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="2"/>
-        <v>2.3896091075086798</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="3"/>
-        <v>1.1926729048748421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
-        <v>23956596678.666599</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0.71987738177884197</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="2"/>
-        <v>2.39565966786666</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="3"/>
-        <v>0.14397547635576841</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
-        <v>24002629892.715698</v>
-      </c>
-      <c r="B106" s="2">
-        <v>-4.8880187352152902</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="2"/>
-        <v>2.4002629892715697</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="3"/>
-        <v>-0.97760374704305808</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
-        <v>24058952614.109001</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1.4668791644715899</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="2"/>
-        <v>2.4058952614109002</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="3"/>
-        <v>0.29337583289431801</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
-        <v>24101546083.142101</v>
-      </c>
-      <c r="B108" s="2">
-        <v>10.1497392030623</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="2"/>
-        <v>2.41015460831421</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="3"/>
-        <v>2.02994784061246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
-        <v>24193125754.5275</v>
-      </c>
-      <c r="B109" s="2">
-        <v>7.4395552921612298</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="2"/>
-        <v>2.41931257545275</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="3"/>
-        <v>1.4879110584322459</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
-        <v>24199442104.7822</v>
-      </c>
-      <c r="B110" s="2">
-        <v>-1.55373649582021</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="2"/>
-        <v>2.4199442104782198</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="3"/>
-        <v>-0.31074729916404198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
-        <v>24269767069.929901</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3.6290909479851101</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="2"/>
-        <v>2.4269767069929902</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="3"/>
-        <v>0.72581818959702205</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
-        <v>24329434925.4114</v>
-      </c>
-      <c r="B112" s="2">
-        <v>7.6072096452882904E-2</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="2"/>
-        <v>2.4329434925411402</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="3"/>
-        <v>1.521441929057658E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
-        <v>24359124180.4231</v>
-      </c>
-      <c r="B113" s="2">
-        <v>-6.7259123067877198</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="2"/>
-        <v>2.4359124180423097</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="3"/>
-        <v>-1.345182461357544</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
-        <v>24418471837.885601</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1.1241460092651601</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="2"/>
-        <v>2.44184718378856</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="3"/>
-        <v>0.22482920185303201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
-        <v>24475540312.963299</v>
-      </c>
-      <c r="B115" s="2">
-        <v>-9.1546580194953204</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="2"/>
-        <v>2.4475540312963298</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="3"/>
-        <v>-1.8309316038990642</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
-        <v>24524788827.580002</v>
-      </c>
-      <c r="B116" s="2">
-        <v>-2.0886219395592698</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="2"/>
-        <v>2.4524788827580002</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="3"/>
-        <v>-0.41772438791185396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
-        <v>24570243359.984001</v>
-      </c>
-      <c r="B117" s="2">
-        <v>-2.0277676992397802</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="2"/>
-        <v>2.4570243359984003</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="3"/>
-        <v>-0.40555353984795606</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
-        <v>24610378963.856201</v>
-      </c>
-      <c r="B118" s="2">
-        <v>8.9338196888484092</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="2"/>
-        <v>2.4610378963856201</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="3"/>
-        <v>1.7867639377696818</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
-        <v>24655119105.1222</v>
-      </c>
-      <c r="B119" s="2">
-        <v>3.4136583670771601</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="2"/>
-        <v>2.4655119105122201</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="3"/>
-        <v>0.68273167341543206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
-        <v>24699806508.640598</v>
-      </c>
-      <c r="B120" s="2">
-        <v>12.6652710096477</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="2"/>
-        <v>2.46998065086406</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="3"/>
-        <v>2.5330542019295401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
-        <v>24767908362.114498</v>
-      </c>
-      <c r="B121" s="2">
-        <v>5.6448393130139296</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="2"/>
-        <v>2.4767908362114497</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="3"/>
-        <v>1.1289678626027859</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
-        <v>24815079173.224899</v>
-      </c>
-      <c r="B122" s="2">
-        <v>2.8095328718027801</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="2"/>
-        <v>2.4815079173224901</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="3"/>
-        <v>0.56190657436055602</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
-        <v>24884817923.702</v>
-      </c>
-      <c r="B123" s="2">
-        <v>-1.0426947653090799</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="2"/>
-        <v>2.4884817923701998</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="3"/>
-        <v>-0.20853895306181597</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
-        <v>24920647297.255199</v>
-      </c>
-      <c r="B124" s="2">
-        <v>0.50384996829611595</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="2"/>
-        <v>2.4920647297255201</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="3"/>
-        <v>0.10076999365922319</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
-        <v>24967503922.165798</v>
-      </c>
-      <c r="B125" s="2">
-        <v>0.98679164867800995</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="2"/>
-        <v>2.4967503922165797</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="3"/>
-        <v>0.19735832973560199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
-        <v>25027654622.110401</v>
-      </c>
-      <c r="B126" s="2">
-        <v>1.52449880433928</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="2"/>
-        <v>2.5027654622110402</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="3"/>
-        <v>0.30489976086785597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
-        <v>25094057635.085602</v>
-      </c>
-      <c r="B127" s="2">
-        <v>-4.1841722067945097</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="2"/>
-        <v>2.50940576350856</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="3"/>
-        <v>-0.83683444135890195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
-        <v>25115112160.620399</v>
-      </c>
-      <c r="B128" s="2">
-        <v>2.4922708102071098</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="2"/>
-        <v>2.5115112160620399</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="3"/>
-        <v>0.49845416204142196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
-        <v>25195483103.8311</v>
-      </c>
-      <c r="B129" s="2">
-        <v>3.23294631756495</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="2"/>
-        <v>2.5195483103831102</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="3"/>
-        <v>0.64658926351298995</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
-        <v>25228424085.817699</v>
-      </c>
-      <c r="B130" s="2">
-        <v>5.75987577442252</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="2"/>
-        <v>2.52284240858177</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="3"/>
-        <v>1.1519751548845041</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
-        <v>25256401488.307598</v>
-      </c>
-      <c r="B131" s="2">
-        <v>7.8316441889726001</v>
-      </c>
-      <c r="C131">
-        <f t="shared" ref="C131:C194" si="4">A131/10000000000</f>
-        <v>2.5256401488307598</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">B131/5</f>
-        <v>1.5663288377945199</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
-        <v>25329020597.526199</v>
-      </c>
-      <c r="B132" s="2">
-        <v>4.71203186596669</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="4"/>
-        <v>2.5329020597526197</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="5"/>
-        <v>0.94240637319333798</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
-        <v>25395301441.2901</v>
-      </c>
-      <c r="B133" s="2">
-        <v>0.31067585630091499</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="4"/>
-        <v>2.5395301441290101</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="5"/>
-        <v>6.2135171260182996E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
-        <v>25408829962.183998</v>
-      </c>
-      <c r="B134" s="2">
-        <v>4.9717144771935304</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="4"/>
-        <v>2.5408829962183996</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="5"/>
-        <v>0.99434289543870613</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
-        <v>25491285444.567902</v>
-      </c>
-      <c r="B135" s="2">
-        <v>2.1640240369302202</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="4"/>
-        <v>2.5491285444567904</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="5"/>
-        <v>0.43280480738604404</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
-        <v>25521585504.777699</v>
-      </c>
-      <c r="B136" s="2">
-        <v>13.683722744782701</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="4"/>
-        <v>2.55215855047777</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="5"/>
-        <v>2.7367445489565401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
-        <v>25600709065.945099</v>
-      </c>
-      <c r="B137" s="2">
-        <v>8.0433023361430198</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="4"/>
-        <v>2.5600709065945098</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="5"/>
-        <v>1.608660467228604</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
-        <v>25635994136.2939</v>
-      </c>
-      <c r="B138" s="2">
-        <v>-1.1296404501927</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="4"/>
-        <v>2.5635994136293898</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="5"/>
-        <v>-0.22592809003854</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
-        <v>25694200976.056301</v>
-      </c>
-      <c r="B139" s="2">
-        <v>-1.85714679831258</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="4"/>
-        <v>2.5694200976056303</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="5"/>
-        <v>-0.371429359662516</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
-        <v>25720825400.021702</v>
-      </c>
-      <c r="B140" s="2">
-        <v>0.43039101638831201</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="4"/>
-        <v>2.5720825400021701</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="5"/>
-        <v>8.6078203277662399E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
-        <v>25790449546.883499</v>
-      </c>
-      <c r="B141" s="2">
-        <v>8.2785802359182998</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="4"/>
-        <v>2.5790449546883498</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="5"/>
-        <v>1.6557160471836601</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
-        <v>25825276017.4482</v>
-      </c>
-      <c r="B142" s="2">
-        <v>-1.1848125571511201</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="4"/>
-        <v>2.58252760174482</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="5"/>
-        <v>-0.23696251143022401</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
-        <v>25904539975.777699</v>
-      </c>
-      <c r="B143" s="2">
-        <v>1.6473725899406599</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="4"/>
-        <v>2.5904539975777698</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="5"/>
-        <v>0.32947451798813199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
-        <v>25924347910.162201</v>
-      </c>
-      <c r="B144" s="2">
-        <v>4.3884874639091498</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="4"/>
-        <v>2.59243479101622</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="5"/>
-        <v>0.87769749278182996</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
-        <v>25973324197.125099</v>
-      </c>
-      <c r="B145" s="2">
-        <v>2.6929865108358002</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="4"/>
-        <v>2.5973324197125098</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="5"/>
-        <v>0.53859730216716006</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
-        <v>26009703280.377102</v>
-      </c>
-      <c r="B146" s="2">
-        <v>11.7541259491794</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="4"/>
-        <v>2.6009703280377101</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="5"/>
-        <v>2.3508251898358798</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
-        <v>26065891527.161598</v>
-      </c>
-      <c r="B147" s="2">
-        <v>2.5643119387023701</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="4"/>
-        <v>2.6065891527161598</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="5"/>
-        <v>0.51286238774047399</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
-        <v>26119266141.636799</v>
-      </c>
-      <c r="B148" s="2">
-        <v>4.4249259561129701</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="4"/>
-        <v>2.6119266141636799</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="5"/>
-        <v>0.884985191222594</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
-        <v>26179093623.909199</v>
-      </c>
-      <c r="B149" s="2">
-        <v>11.4735767924534</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="4"/>
-        <v>2.61790936239092</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="5"/>
-        <v>2.2947153584906799</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
-        <v>26239107539.538898</v>
-      </c>
-      <c r="B150" s="2">
-        <v>1.7274509630982899</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="4"/>
-        <v>2.62391075395389</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="5"/>
-        <v>0.34549019261965797</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
-        <v>26308727343.497299</v>
-      </c>
-      <c r="B151" s="2">
-        <v>-12.152196639896401</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="4"/>
-        <v>2.63087273434973</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="5"/>
-        <v>-2.43043932797928</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
-        <v>26355573637.3269</v>
-      </c>
-      <c r="B152" s="2">
-        <v>-0.23684363416108001</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="4"/>
-        <v>2.6355573637326901</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="5"/>
-        <v>-4.7368726832216004E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
-        <v>26413064746.270802</v>
-      </c>
-      <c r="B153" s="2">
-        <v>7.1572301929239996</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="4"/>
-        <v>2.64130647462708</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="5"/>
-        <v>1.4314460385848</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
-        <v>26473284910.609001</v>
-      </c>
-      <c r="B154" s="2">
-        <v>-2.4206884568899398</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="4"/>
-        <v>2.6473284910609003</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="5"/>
-        <v>-0.48413769137798796</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
-        <v>26510681286.016201</v>
-      </c>
-      <c r="B155" s="2">
-        <v>-2.98686464824848</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="4"/>
-        <v>2.65106812860162</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="5"/>
-        <v>-0.59737292964969602</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
-        <v>26559295210.260899</v>
-      </c>
-      <c r="B156" s="2">
-        <v>2.9193900652351998</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="4"/>
-        <v>2.6559295210260898</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="5"/>
-        <v>0.58387801304704001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
-        <v>26604927095.801899</v>
-      </c>
-      <c r="B157" s="2">
-        <v>13.0889127091472</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="4"/>
-        <v>2.6604927095801898</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="5"/>
-        <v>2.61778254182944</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
-        <v>26657149011.351799</v>
-      </c>
-      <c r="B158" s="2">
-        <v>6.6778785362165802</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="4"/>
-        <v>2.6657149011351797</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="5"/>
-        <v>1.3355757072433161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
-        <v>26731373176.3503</v>
-      </c>
-      <c r="B159" s="2">
-        <v>7.6187092212928</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="4"/>
-        <v>2.6731373176350299</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="5"/>
-        <v>1.52374184425856</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
-        <v>26771209135.339199</v>
-      </c>
-      <c r="B160" s="2">
-        <v>7.9614440162602502</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="4"/>
-        <v>2.67712091353392</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="5"/>
-        <v>1.5922888032520501</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
-        <v>26816698854.742199</v>
-      </c>
-      <c r="B161" s="2">
-        <v>0.93326978522076898</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="4"/>
-        <v>2.68166988547422</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="5"/>
-        <v>0.1866539570441538</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
-        <v>26860014295.708099</v>
-      </c>
-      <c r="B162" s="2">
-        <v>9.3306055684879698</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="4"/>
-        <v>2.6860014295708101</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="5"/>
-        <v>1.8661211136975939</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
-        <v>26951223351.882198</v>
-      </c>
-      <c r="B163" s="2">
-        <v>-0.70968694413147404</v>
-      </c>
-      <c r="C163">
-        <f t="shared" si="4"/>
-        <v>2.6951223351882199</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="5"/>
-        <v>-0.14193738882629481</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
-        <v>27004408417.121101</v>
-      </c>
-      <c r="B164" s="2">
-        <v>2.5469628496060799</v>
-      </c>
-      <c r="C164">
-        <f t="shared" si="4"/>
-        <v>2.7004408417121102</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="5"/>
-        <v>0.50939256992121595</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
-        <v>27008195587.162399</v>
-      </c>
-      <c r="B165" s="2">
-        <v>-8.0054378986075996</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="4"/>
-        <v>2.70081955871624</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="5"/>
-        <v>-1.6010875797215198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
-        <v>27090208972.780102</v>
-      </c>
-      <c r="B166" s="2">
-        <v>-1.39374219668701</v>
-      </c>
-      <c r="C166">
-        <f t="shared" si="4"/>
-        <v>2.7090208972780103</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="5"/>
-        <v>-0.27874843933740201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
-        <v>27146887938.892502</v>
-      </c>
-      <c r="B167" s="2">
-        <v>6.49102092309246</v>
-      </c>
-      <c r="C167">
-        <f t="shared" si="4"/>
-        <v>2.7146887938892501</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="5"/>
-        <v>1.298204184618492</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
-        <v>27205267043.786499</v>
-      </c>
-      <c r="B168" s="2">
-        <v>3.2966461732404402</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="4"/>
-        <v>2.7205267043786501</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="5"/>
-        <v>0.65932923464808801</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
-        <v>27234941382.979</v>
-      </c>
-      <c r="B169" s="2">
-        <v>6.6423863147565196</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="4"/>
-        <v>2.7234941382978999</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="5"/>
-        <v>1.328477262951304</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
-        <v>27330995570.159</v>
-      </c>
-      <c r="B170" s="2">
-        <v>3.7857534014352501</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="4"/>
-        <v>2.7330995570159002</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="5"/>
-        <v>0.75715068028705002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
-        <v>27377718480.505001</v>
-      </c>
-      <c r="B171" s="2">
-        <v>1.0606146275957699E-3</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="4"/>
-        <v>2.7377718480505</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="5"/>
-        <v>2.1212292551915399E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
-        <v>27398257352.188499</v>
-      </c>
-      <c r="B172" s="2">
-        <v>3.3855240619714602</v>
-      </c>
-      <c r="C172">
-        <f t="shared" si="4"/>
-        <v>2.73982573521885</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="5"/>
-        <v>0.67710481239429199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
-        <v>27485002377.7677</v>
-      </c>
-      <c r="B173" s="2">
-        <v>1.58964335078954</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="4"/>
-        <v>2.7485002377767702</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="5"/>
-        <v>0.31792867015790799</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
-        <v>27554530138.137001</v>
-      </c>
-      <c r="B174" s="2">
-        <v>11.718004020310399</v>
-      </c>
-      <c r="C174">
-        <f t="shared" si="4"/>
-        <v>2.7554530138137001</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="5"/>
-        <v>2.3436008040620799</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
-        <v>27598622281.4034</v>
-      </c>
-      <c r="B175" s="2">
-        <v>2.0805580685371399</v>
-      </c>
-      <c r="C175">
-        <f t="shared" si="4"/>
-        <v>2.75986222814034</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="5"/>
-        <v>0.416111613707428</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
-        <v>27649341579.489399</v>
-      </c>
-      <c r="B176" s="2">
-        <v>4.1430492613485104</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="4"/>
-        <v>2.7649341579489399</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="5"/>
-        <v>0.82860985226970207</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
-        <v>27691204253.9077</v>
-      </c>
-      <c r="B177" s="2">
-        <v>3.3482312357877699</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="4"/>
-        <v>2.7691204253907697</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="5"/>
-        <v>0.66964624715755394</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
-        <v>27759338007.428902</v>
-      </c>
-      <c r="B178" s="2">
-        <v>5.44052500236889</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="4"/>
-        <v>2.77593380074289</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="5"/>
-        <v>1.088105000473778</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
-        <v>27796214688.381599</v>
-      </c>
-      <c r="B179" s="2">
-        <v>-2.9277553046002498</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="4"/>
-        <v>2.77962146883816</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="5"/>
-        <v>-0.58555106092004994</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
-        <v>27882432379.7953</v>
-      </c>
-      <c r="B180" s="2">
-        <v>4.19427853700103</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="4"/>
-        <v>2.7882432379795299</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="5"/>
-        <v>0.83885570740020599</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
-        <v>27945190572.957001</v>
-      </c>
-      <c r="B181" s="2">
-        <v>-0.96346615649697498</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="4"/>
-        <v>2.7945190572956999</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="5"/>
-        <v>-0.192693231299395</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
-        <v>27986379007.581402</v>
-      </c>
-      <c r="B182" s="2">
-        <v>2.1033913699253399</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="4"/>
-        <v>2.7986379007581403</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="5"/>
-        <v>0.42067827398506796</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
-        <v>28037545286.851398</v>
-      </c>
-      <c r="B183" s="2">
-        <v>-7.1651004539118697</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="4"/>
-        <v>2.8037545286851397</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="5"/>
-        <v>-1.433020090782374</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
-        <v>28135096134.693802</v>
-      </c>
-      <c r="B184" s="2">
-        <v>6.1834478196775002</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="4"/>
-        <v>2.81350961346938</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="5"/>
-        <v>1.2366895639355</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
-        <v>28215519986.102299</v>
-      </c>
-      <c r="B185" s="2">
-        <v>6.1162081903230199</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="4"/>
-        <v>2.82155199861023</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="5"/>
-        <v>1.2232416380646041</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
-        <v>28249656914.169498</v>
-      </c>
-      <c r="B186" s="2">
-        <v>10.908954663618401</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="4"/>
-        <v>2.8249656914169496</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="5"/>
-        <v>2.18179093272368</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
-        <v>28329021259.575699</v>
-      </c>
-      <c r="B187" s="2">
-        <v>4.5915419784949698</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="4"/>
-        <v>2.83290212595757</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="5"/>
-        <v>0.91830839569899392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
-        <v>28395375012.2449</v>
-      </c>
-      <c r="B188" s="2">
-        <v>0.22702516601108499</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="4"/>
-        <v>2.8395375012244899</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="5"/>
-        <v>4.5405033202216998E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
-        <v>28412667354.738899</v>
-      </c>
-      <c r="B189" s="2">
-        <v>-5.5773390156267002</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="4"/>
-        <v>2.8412667354738899</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="5"/>
-        <v>-1.11546780312534</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
-        <v>28508017010.2286</v>
-      </c>
-      <c r="B190" s="2">
-        <v>5.3357848389693903</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="4"/>
-        <v>2.8508017010228599</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="5"/>
-        <v>1.0671569677938781</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
-        <v>28551080562.168598</v>
-      </c>
-      <c r="B191" s="2">
-        <v>9.1122135553507899</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="4"/>
-        <v>2.85510805621686</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="5"/>
-        <v>1.822442711070158</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
-        <v>28605843706.877399</v>
-      </c>
-      <c r="B192" s="2">
-        <v>3.7492811795524301</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="4"/>
-        <v>2.8605843706877399</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="5"/>
-        <v>0.749856235910486</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
-        <v>28700522075.217098</v>
-      </c>
-      <c r="B193" s="2">
-        <v>0.10085168994634</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="4"/>
-        <v>2.8700522075217099</v>
-      </c>
-      <c r="D193">
-        <f t="shared" si="5"/>
-        <v>2.0170337989268001E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
-        <v>28736445103.182999</v>
-      </c>
-      <c r="B194" s="2">
-        <v>-3.3827863489143599</v>
-      </c>
-      <c r="C194">
-        <f t="shared" si="4"/>
-        <v>2.8736445103182997</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="5"/>
-        <v>-0.67655726978287201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
-        <v>28845594379.948299</v>
-      </c>
-      <c r="B195" s="2">
-        <v>6.0148661990707701</v>
-      </c>
-      <c r="C195">
-        <f t="shared" ref="C195:C249" si="6">A195/10000000000</f>
-        <v>2.8845594379948301</v>
-      </c>
-      <c r="D195">
-        <f t="shared" ref="D195:D249" si="7">B195/5</f>
-        <v>1.2029732398141539</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
-        <v>28861650204.744499</v>
-      </c>
-      <c r="B196" s="2">
-        <v>0.56927578665858503</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="6"/>
-        <v>2.8861650204744498</v>
-      </c>
-      <c r="D196">
-        <f t="shared" si="7"/>
-        <v>0.113855157331717</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
-        <v>28993911779.6063</v>
-      </c>
-      <c r="B197" s="2">
-        <v>-2.8492711321909701</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="6"/>
-        <v>2.8993911779606298</v>
-      </c>
-      <c r="D197">
-        <f t="shared" si="7"/>
-        <v>-0.56985422643819406</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
-        <v>28998726114.275501</v>
-      </c>
-      <c r="B198" s="2">
-        <v>3.8495912625308901</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="6"/>
-        <v>2.8998726114275502</v>
-      </c>
-      <c r="D198">
-        <f t="shared" si="7"/>
-        <v>0.76991825250617807</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
-        <v>29105685206.4146</v>
-      </c>
-      <c r="B199" s="2">
-        <v>11.221058871641</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="6"/>
-        <v>2.9105685206414602</v>
-      </c>
-      <c r="D199">
-        <f t="shared" si="7"/>
-        <v>2.2442117743282002</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
-        <v>29159820412.564098</v>
-      </c>
-      <c r="B200" s="2">
-        <v>14.3085455642395</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="6"/>
-        <v>2.9159820412564099</v>
-      </c>
-      <c r="D200">
-        <f t="shared" si="7"/>
-        <v>2.8617091128479002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
-        <v>29279942151.868301</v>
-      </c>
-      <c r="B201" s="2">
-        <v>8.1163150257870402</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="6"/>
-        <v>2.9279942151868301</v>
-      </c>
-      <c r="D201">
-        <f t="shared" si="7"/>
-        <v>1.623263005157408</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
-        <v>29315276896.785198</v>
-      </c>
-      <c r="B202" s="2">
-        <v>-0.82445117358470899</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="6"/>
-        <v>2.9315276896785196</v>
-      </c>
-      <c r="D202">
-        <f t="shared" si="7"/>
-        <v>-0.16489023471694181</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
-        <v>29378634739.947102</v>
-      </c>
-      <c r="B203" s="2">
-        <v>5.3895157927420501</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="6"/>
-        <v>2.9378634739947103</v>
-      </c>
-      <c r="D203">
-        <f t="shared" si="7"/>
-        <v>1.07790315854841</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
-        <v>29445679347.154598</v>
-      </c>
-      <c r="B204" s="2">
-        <v>8.3921881002227803</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="6"/>
-        <v>2.9445679347154599</v>
-      </c>
-      <c r="D204">
-        <f t="shared" si="7"/>
-        <v>1.6784376200445561</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
-        <v>29509836410.1264</v>
-      </c>
-      <c r="B205" s="2">
-        <v>1.3061648195275499</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="6"/>
-        <v>2.9509836410126402</v>
-      </c>
-      <c r="D205">
-        <f t="shared" si="7"/>
-        <v>0.26123296390550999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
-        <v>29629875359.519299</v>
-      </c>
-      <c r="B206" s="2">
-        <v>4.22191634009023</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="6"/>
-        <v>2.96298753595193</v>
-      </c>
-      <c r="D206">
-        <f t="shared" si="7"/>
-        <v>0.84438326801804597</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
-        <v>29654480197.3013</v>
-      </c>
-      <c r="B207" s="2">
-        <v>-1.95663053298025</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="6"/>
-        <v>2.9654480197301298</v>
-      </c>
-      <c r="D207">
-        <f t="shared" si="7"/>
-        <v>-0.39132610659604999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
-        <v>29790881398.019402</v>
-      </c>
-      <c r="B208" s="2">
-        <v>7.2494623259520496</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="6"/>
-        <v>2.9790881398019402</v>
-      </c>
-      <c r="D208">
-        <f t="shared" si="7"/>
-        <v>1.4498924651904099</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
-        <v>29850537328.127701</v>
-      </c>
-      <c r="B209" s="2">
-        <v>6.9986893946305901</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="6"/>
-        <v>2.9850537328127702</v>
-      </c>
-      <c r="D209">
-        <f t="shared" si="7"/>
-        <v>1.3997378789261181</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
-        <v>29902655911.43</v>
-      </c>
-      <c r="B210" s="2">
-        <v>0.70831905443805099</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="6"/>
-        <v>2.9902655911429998</v>
-      </c>
-      <c r="D210">
-        <f t="shared" si="7"/>
-        <v>0.14166381088761021</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
-        <v>30011044049.374599</v>
-      </c>
-      <c r="B211" s="2">
-        <v>-1.7362905132853801</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="6"/>
-        <v>3.0011044049374598</v>
-      </c>
-      <c r="D211">
-        <f t="shared" si="7"/>
-        <v>-0.34725810265707602</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
-        <v>30113915095.713001</v>
-      </c>
-      <c r="B212" s="2">
-        <v>-3.41984736840659</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="6"/>
-        <v>3.0113915095713</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="7"/>
-        <v>-0.683969473681318</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
-        <v>30196697579.164902</v>
-      </c>
-      <c r="B213" s="2">
-        <v>-7.4085215737544399</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="6"/>
-        <v>3.0196697579164904</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="7"/>
-        <v>-1.4817043147508879</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
-        <v>30311099546.945999</v>
-      </c>
-      <c r="B214" s="2">
-        <v>1.40324367166313</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="6"/>
-        <v>3.0311099546946001</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="7"/>
-        <v>0.28064873433262599</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
-        <v>30317067962.998199</v>
-      </c>
-      <c r="B215" s="2">
-        <v>9.2549075512698096</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="6"/>
-        <v>3.0317067962998201</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="7"/>
-        <v>1.850981510253962</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
-        <v>30453618532.4986</v>
-      </c>
-      <c r="B216" s="2">
-        <v>-8.7503873792603493</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="6"/>
-        <v>3.0453618532498599</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="7"/>
-        <v>-1.7500774758520699</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
-        <v>30514845125.101898</v>
-      </c>
-      <c r="B217" s="2">
-        <v>5.8923000379078596</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="6"/>
-        <v>3.0514845125101897</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="7"/>
-        <v>1.1784600075815719</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
-        <v>30674750094.6399</v>
-      </c>
-      <c r="B218" s="2">
-        <v>7.30122755887104</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="6"/>
-        <v>3.06747500946399</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="7"/>
-        <v>1.4602455117742079</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
-        <v>30687886141.2075</v>
-      </c>
-      <c r="B219" s="2">
-        <v>7.3709428357914399</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="6"/>
-        <v>3.0687886141207499</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="7"/>
-        <v>1.4741885671582879</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
-        <v>30855317354.990002</v>
-      </c>
-      <c r="B220" s="2">
-        <v>5.4824289309701397</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="6"/>
-        <v>3.085531735499</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="7"/>
-        <v>1.096485786194028</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
-        <v>30942157018.005299</v>
-      </c>
-      <c r="B221" s="2">
-        <v>5.1464919755187299</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="6"/>
-        <v>3.0942157018005298</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="7"/>
-        <v>1.029298395103746</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
-        <v>31057971848.415901</v>
-      </c>
-      <c r="B222" s="2">
-        <v>1.3486356207369099</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="6"/>
-        <v>3.10579718484159</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="7"/>
-        <v>0.26972712414738198</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
-        <v>31107336724.211601</v>
-      </c>
-      <c r="B223" s="2">
-        <v>11.1115072424313</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="6"/>
-        <v>3.1107336724211603</v>
-      </c>
-      <c r="D223">
-        <f t="shared" si="7"/>
-        <v>2.22230144848626</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
-        <v>31268620805.438202</v>
-      </c>
-      <c r="B224" s="2">
-        <v>10.443183112325499</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="6"/>
-        <v>3.1268620805438201</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="7"/>
-        <v>2.0886366224651001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
-        <v>31321083857.843899</v>
-      </c>
-      <c r="B225" s="2">
-        <v>-1.2151537418179601</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="6"/>
-        <v>3.1321083857843899</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="7"/>
-        <v>-0.24303074836359201</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
-        <v>31415417432.113998</v>
-      </c>
-      <c r="B226" s="2">
-        <v>3.0636846461596701</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="6"/>
-        <v>3.1415417432113997</v>
-      </c>
-      <c r="D226">
-        <f t="shared" si="7"/>
-        <v>0.61273692923193401</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
-        <v>31526629082.431099</v>
-      </c>
-      <c r="B227" s="2">
-        <v>6.8133684267675401</v>
-      </c>
-      <c r="C227">
-        <f t="shared" si="6"/>
-        <v>3.1526629082431099</v>
-      </c>
-      <c r="D227">
-        <f t="shared" si="7"/>
-        <v>1.362673685353508</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
-        <v>31668232983.111</v>
-      </c>
-      <c r="B228" s="2">
-        <v>-0.30386830392703201</v>
-      </c>
-      <c r="C228">
-        <f t="shared" si="6"/>
-        <v>3.1668232983111002</v>
-      </c>
-      <c r="D228">
-        <f t="shared" si="7"/>
-        <v>-6.07736607854064E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
-        <v>31882484239.938702</v>
-      </c>
-      <c r="B229" s="2">
-        <v>1.8508033371605099</v>
-      </c>
-      <c r="C229">
-        <f t="shared" si="6"/>
-        <v>3.18824842399387</v>
-      </c>
-      <c r="D229">
-        <f t="shared" si="7"/>
-        <v>0.37016066743210196</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
-        <v>31990264827.7192</v>
-      </c>
-      <c r="B230" s="2">
-        <v>4.0197556916736099</v>
-      </c>
-      <c r="C230">
-        <f t="shared" si="6"/>
-        <v>3.1990264827719201</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="7"/>
-        <v>0.80395113833472198</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
-        <v>32056166351.236801</v>
-      </c>
-      <c r="B231" s="2">
-        <v>-3.13541787898561</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="6"/>
-        <v>3.2056166351236803</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="7"/>
-        <v>-0.62708357579712204</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
-        <v>32297384102.710899</v>
-      </c>
-      <c r="B232" s="2">
-        <v>2.7139529449877702</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="6"/>
-        <v>3.2297384102710898</v>
-      </c>
-      <c r="D232">
-        <f t="shared" si="7"/>
-        <v>0.54279058899755406</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
-        <v>32422589586.7855</v>
-      </c>
-      <c r="B233" s="2">
-        <v>8.6991484347610406</v>
-      </c>
-      <c r="C233">
-        <f t="shared" si="6"/>
-        <v>3.24225895867855</v>
-      </c>
-      <c r="D233">
-        <f t="shared" si="7"/>
-        <v>1.7398296869522081</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
-        <v>32548314471.280102</v>
-      </c>
-      <c r="B234" s="2">
-        <v>-0.79180238354079602</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="6"/>
-        <v>3.25483144712801</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="7"/>
-        <v>-0.1583604767081592</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
-        <v>32719335671.344501</v>
-      </c>
-      <c r="B235" s="2">
-        <v>-6.3189294815069097</v>
-      </c>
-      <c r="C235">
-        <f t="shared" si="6"/>
-        <v>3.2719335671344503</v>
-      </c>
-      <c r="D235">
-        <f t="shared" si="7"/>
-        <v>-1.2637858963013819</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
-        <v>32930434338.569</v>
-      </c>
-      <c r="B236" s="2">
-        <v>-3.73897110935743</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="6"/>
-        <v>3.2930434338569001</v>
-      </c>
-      <c r="D236">
-        <f t="shared" si="7"/>
-        <v>-0.74779422187148603</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
-        <v>33041996712.181</v>
-      </c>
-      <c r="B237" s="2">
-        <v>7.5572254037343098</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="6"/>
-        <v>3.3041996712180999</v>
-      </c>
-      <c r="D237">
-        <f t="shared" si="7"/>
-        <v>1.511445080746862</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
-        <v>33310409311.0709</v>
-      </c>
-      <c r="B238" s="2">
-        <v>-5.2446964006072099</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="6"/>
-        <v>3.3310409311070899</v>
-      </c>
-      <c r="D238">
-        <f t="shared" si="7"/>
-        <v>-1.0489392801214419</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
-        <v>33510128245.363098</v>
-      </c>
-      <c r="B239" s="2">
-        <v>-0.43925479913492399</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="6"/>
-        <v>3.3510128245363098</v>
-      </c>
-      <c r="D239">
-        <f t="shared" si="7"/>
-        <v>-8.7850959826984792E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
-        <v>33729001023.113998</v>
-      </c>
-      <c r="B240" s="2">
-        <v>3.68902963373846</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="6"/>
-        <v>3.3729001023113998</v>
-      </c>
-      <c r="D240">
-        <f t="shared" si="7"/>
-        <v>0.73780592674769196</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
-        <v>33970357029.553101</v>
-      </c>
-      <c r="B241" s="2">
-        <v>12.476861570448801</v>
-      </c>
-      <c r="C241">
-        <f t="shared" si="6"/>
-        <v>3.3970357029553102</v>
-      </c>
-      <c r="D241">
-        <f t="shared" si="7"/>
-        <v>2.4953723140897601</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
-        <v>34125539299.456501</v>
-      </c>
-      <c r="B242" s="2">
-        <v>3.4632490134401999</v>
-      </c>
-      <c r="C242">
-        <f t="shared" si="6"/>
-        <v>3.4125539299456502</v>
-      </c>
-      <c r="D242">
-        <f t="shared" si="7"/>
-        <v>0.69264980268803999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
-        <v>34363329475.5168</v>
-      </c>
-      <c r="B243" s="2">
-        <v>2.76120675915476</v>
-      </c>
-      <c r="C243">
-        <f t="shared" si="6"/>
-        <v>3.43633294755168</v>
-      </c>
-      <c r="D243">
-        <f t="shared" si="7"/>
-        <v>0.55224135183095202</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
-        <v>34828294372.713203</v>
-      </c>
-      <c r="B244" s="2">
-        <v>7.6883480288723902</v>
-      </c>
-      <c r="C244">
-        <f t="shared" si="6"/>
-        <v>3.4828294372713202</v>
-      </c>
-      <c r="D244">
-        <f t="shared" si="7"/>
-        <v>1.5376696057744781</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
-        <v>35235077145.227898</v>
-      </c>
-      <c r="B245" s="2">
-        <v>-4.0707560585765501</v>
-      </c>
-      <c r="C245">
-        <f t="shared" si="6"/>
-        <v>3.5235077145227898</v>
-      </c>
-      <c r="D245">
-        <f t="shared" si="7"/>
-        <v>-0.81415121171531002</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
-        <v>35457432451.299896</v>
-      </c>
-      <c r="B246" s="2">
-        <v>7.0715264603325698</v>
-      </c>
-      <c r="C246">
-        <f t="shared" si="6"/>
-        <v>3.5457432451299895</v>
-      </c>
-      <c r="D246">
-        <f t="shared" si="7"/>
-        <v>1.414305292066514</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
-        <v>36218913488.371101</v>
-      </c>
-      <c r="B247" s="2">
-        <v>4.8016091857511798</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="6"/>
-        <v>3.6218913488371101</v>
-      </c>
-      <c r="D247">
-        <f t="shared" si="7"/>
-        <v>0.960321837150236</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
-        <v>36356731957.407799</v>
-      </c>
-      <c r="B248" s="2">
-        <v>-3.9097345788155402</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="6"/>
-        <v>3.6356731957407797</v>
-      </c>
-      <c r="D248">
-        <f t="shared" si="7"/>
-        <v>-0.78194691576310804</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
-        <v>38155932880.980598</v>
-      </c>
-      <c r="B249" s="2">
-        <v>-4.6574524385976499</v>
-      </c>
-      <c r="C249">
-        <f t="shared" si="6"/>
-        <v>3.8155932880980599</v>
-      </c>
-      <c r="D249">
-        <f t="shared" si="7"/>
-        <v>-0.93149048771953002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>